--- a/ARK/trunk/usefulTools/TestFilesAndDocuments/UAT Current Requirements-cutdownForRegistryUAT.xlsx
+++ b/ARK/trunk/usefulTools/TestFilesAndDocuments/UAT Current Requirements-cutdownForRegistryUAT.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="168" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="168"/>
   </bookViews>
   <sheets>
-    <sheet name="UAT Items List" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="UAT Items List" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1803,127 +1807,110 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="@" numFmtId="165"/>
-    <numFmt formatCode="D/MM/YYYY\ H:MM" numFmtId="166"/>
-    <numFmt formatCode="DD/MM/YY" numFmtId="167"/>
-    <numFmt formatCode="DD/MM/YY\ HH:MM" numFmtId="168"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy\ h:mm"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy\ hh:mm"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00006100"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00006100"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF5B4573"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="009C0006"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF704800"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="009C0006"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF704800"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="009C6500"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="005B4573"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00704800"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00704800"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="009C6500"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1935,339 +1922,281 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00000000"/>
-        <bgColor rgb="00003300"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6E0EC"/>
-        <bgColor rgb="00E6E6FF"/>
+        <fgColor rgb="FFE6E0EC"/>
+        <bgColor rgb="FFE6E6FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00E6E6FF"/>
-        <bgColor rgb="00E6E0EC"/>
+        <fgColor rgb="FFE6E6FF"/>
+        <bgColor rgb="FFE6E0EC"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick"/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left style="thick">
-        <color rgb="007F7F7F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thick">
-        <color rgb="007F7F7F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thick">
-        <color rgb="007F7F7F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thick">
-        <color rgb="007F7F7F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="68">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="5" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="167" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="11" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="12" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="3" fontId="12" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="13" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="4" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2326,56 +2255,376 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="005B4573"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R286"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK286"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A31" view="normal" windowProtection="false" workbookViewId="0" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100">
-      <selection activeCell="I77" activeCellId="0" pane="topLeft" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="66" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.51764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="34.2705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="44.2352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="40.4705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="34.0117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="8.93333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="15.0235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="6.38039215686275"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="6" width="37.2823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="4" width="8.93333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="17.7176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="6.38039215686275"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="6" width="37.2823529411765"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.2666666666667"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="8.72156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="7" width="9.68235294117647"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="3" max="5" width="10.83203125" style="4"/>
+    <col min="6" max="7" width="10.83203125" style="5"/>
+    <col min="8" max="8" width="10.83203125" style="6"/>
+    <col min="9" max="9" width="10.83203125" style="7"/>
+    <col min="10" max="11" width="10.83203125" style="5"/>
+    <col min="12" max="12" width="10.83203125" style="6"/>
+    <col min="13" max="13" width="10.83203125" style="7"/>
+    <col min="17" max="1025" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="68.95" outlineLevel="0" r="1">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:17" ht="69" customHeight="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="2">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" customHeight="1">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="16.5" outlineLevel="0" r="3">
+    <row r="3" spans="1:17" ht="16.5" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -2416,7 +2665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="4">
+    <row r="4" spans="1:17" ht="36" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -2435,8 +2684,8 @@
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
@@ -2451,8 +2700,8 @@
       <c r="K5" s="24"/>
       <c r="L5" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:17" ht="15" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -2467,8 +2716,8 @@
       <c r="K6" s="24"/>
       <c r="L6" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="7">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:17" ht="60" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -2486,22 +2735,22 @@
       <c r="F7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="28" t="n">
-        <v>41262.5416666667</v>
-      </c>
-      <c r="H7" s="29" t="n">
+      <c r="G7" s="28">
+        <v>41262.541666666701</v>
+      </c>
+      <c r="H7" s="29">
         <v>1</v>
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
-      <c r="L7" s="21" t="n">
+      <c r="L7" s="21">
         <v>1</v>
       </c>
       <c r="M7" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="8">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:17" ht="60" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -2519,22 +2768,22 @@
       <c r="F8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="28" t="n">
-        <v>41262.5486111111</v>
-      </c>
-      <c r="H8" s="29" t="n">
+      <c r="G8" s="28">
+        <v>41262.548611111102</v>
+      </c>
+      <c r="H8" s="29">
         <v>1</v>
       </c>
       <c r="I8" s="30"/>
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
-      <c r="L8" s="21" t="n">
+      <c r="L8" s="21">
         <v>1</v>
       </c>
       <c r="M8" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="124.5" outlineLevel="0" r="9">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:17" ht="124.5" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -2552,10 +2801,10 @@
       <c r="F9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="28" t="n">
-        <v>41262.5520833333</v>
-      </c>
-      <c r="H9" s="31" t="n">
+      <c r="G9" s="28">
+        <v>41262.552083333299</v>
+      </c>
+      <c r="H9" s="31">
         <v>0</v>
       </c>
       <c r="I9" s="30" t="s">
@@ -2564,18 +2813,18 @@
       <c r="J9" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="28" t="n">
-        <v>41337.6354166667</v>
-      </c>
-      <c r="L9" s="29" t="n">
+      <c r="K9" s="28">
+        <v>41337.635416666701</v>
+      </c>
+      <c r="L9" s="29">
         <v>1</v>
       </c>
       <c r="M9" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:17" ht="15" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="23" t="s">
@@ -2589,8 +2838,8 @@
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="76.5" outlineLevel="0" r="11">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:17" ht="76.5" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -2608,26 +2857,26 @@
       <c r="F11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="28" t="n">
-        <v>41262.5555555556</v>
-      </c>
-      <c r="H11" s="29" t="n">
+      <c r="G11" s="28">
+        <v>41262.555555555598</v>
+      </c>
+      <c r="H11" s="29">
         <v>1</v>
       </c>
       <c r="I11" s="30"/>
       <c r="J11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="28" t="n">
-        <v>41262.5555555556</v>
-      </c>
-      <c r="L11" s="29" t="n">
+      <c r="K11" s="28">
+        <v>41262.555555555598</v>
+      </c>
+      <c r="L11" s="29">
         <v>1</v>
       </c>
       <c r="M11" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="69" outlineLevel="0" r="12">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:17" ht="69" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
@@ -2645,26 +2894,26 @@
       <c r="F12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="28" t="n">
-        <v>41262.5555555556</v>
-      </c>
-      <c r="H12" s="29" t="n">
+      <c r="G12" s="28">
+        <v>41262.555555555598</v>
+      </c>
+      <c r="H12" s="29">
         <v>1</v>
       </c>
       <c r="I12" s="30"/>
       <c r="J12" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="28" t="n">
-        <v>41262.5555555556</v>
-      </c>
-      <c r="L12" s="29" t="n">
+      <c r="K12" s="28">
+        <v>41262.555555555598</v>
+      </c>
+      <c r="L12" s="29">
         <v>1</v>
       </c>
       <c r="M12" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="127.1" outlineLevel="0" r="13">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:17" ht="127" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -2682,10 +2931,10 @@
       <c r="F13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="28" t="n">
-        <v>41262.5541666667</v>
-      </c>
-      <c r="H13" s="34" t="n">
+      <c r="G13" s="28">
+        <v>41262.554166666698</v>
+      </c>
+      <c r="H13" s="34">
         <v>9</v>
       </c>
       <c r="I13" s="30" t="s">
@@ -2694,8 +2943,8 @@
       <c r="J13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="28" t="n">
-        <v>41262.5541666667</v>
+      <c r="K13" s="28">
+        <v>41262.554166666698</v>
       </c>
       <c r="L13" s="34" t="s">
         <v>48</v>
@@ -2704,8 +2953,8 @@
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.25" outlineLevel="0" r="14">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:17" ht="83.25" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -2723,26 +2972,26 @@
       <c r="F14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="28" t="n">
-        <v>41262.5555555556</v>
-      </c>
-      <c r="H14" s="29" t="n">
+      <c r="G14" s="28">
+        <v>41262.555555555598</v>
+      </c>
+      <c r="H14" s="29">
         <v>1</v>
       </c>
       <c r="I14" s="30"/>
       <c r="J14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="28" t="n">
-        <v>41262.5555555556</v>
-      </c>
-      <c r="L14" s="29" t="n">
+      <c r="K14" s="28">
+        <v>41262.555555555598</v>
+      </c>
+      <c r="L14" s="29">
         <v>1</v>
       </c>
       <c r="M14" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.25" outlineLevel="0" r="15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:17" ht="83.25" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -2760,26 +3009,26 @@
       <c r="F15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="28" t="n">
-        <v>41262.5555555556</v>
-      </c>
-      <c r="H15" s="29" t="n">
+      <c r="G15" s="28">
+        <v>41262.555555555598</v>
+      </c>
+      <c r="H15" s="29">
         <v>1</v>
       </c>
       <c r="I15" s="30"/>
       <c r="J15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="28" t="n">
-        <v>41262.5555555556</v>
-      </c>
-      <c r="L15" s="29" t="n">
+      <c r="K15" s="28">
+        <v>41262.555555555598</v>
+      </c>
+      <c r="L15" s="29">
         <v>1</v>
       </c>
       <c r="M15" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.25" outlineLevel="0" r="16">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:17" ht="83.25" customHeight="1">
+      <c r="A16" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -2797,26 +3046,26 @@
       <c r="F16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="28" t="n">
-        <v>41262.5541666667</v>
-      </c>
-      <c r="H16" s="29" t="n">
+      <c r="G16" s="28">
+        <v>41262.554166666698</v>
+      </c>
+      <c r="H16" s="29">
         <v>1</v>
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="28" t="n">
-        <v>41262.5541666667</v>
-      </c>
-      <c r="L16" s="29" t="n">
+      <c r="K16" s="28">
+        <v>41262.554166666698</v>
+      </c>
+      <c r="L16" s="29">
         <v>1</v>
       </c>
       <c r="M16" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="65.25" outlineLevel="0" r="17">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:14" ht="65.25" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -2834,8 +3083,8 @@
       <c r="F17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="28" t="n">
-        <v>41262.5555555556</v>
+      <c r="G17" s="28">
+        <v>41262.555555555598</v>
       </c>
       <c r="H17" s="35" t="s">
         <v>66</v>
@@ -2846,8 +3095,8 @@
       <c r="J17" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="28" t="n">
-        <v>41262.5555555556</v>
+      <c r="K17" s="28">
+        <v>41262.555555555598</v>
       </c>
       <c r="L17" s="35" t="s">
         <v>66</v>
@@ -2856,8 +3105,8 @@
         <v>67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="65.25" outlineLevel="0" r="18">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:14" ht="65.25" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="25" t="s">
@@ -2875,8 +3124,8 @@
       <c r="F18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="28" t="n">
-        <v>41262.5555555556</v>
+      <c r="G18" s="28">
+        <v>41262.555555555598</v>
       </c>
       <c r="H18" s="35" t="s">
         <v>66</v>
@@ -2887,8 +3136,8 @@
       <c r="J18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="28" t="n">
-        <v>41262.5555555556</v>
+      <c r="K18" s="28">
+        <v>41262.555555555598</v>
       </c>
       <c r="L18" s="35" t="s">
         <v>66</v>
@@ -2897,8 +3146,8 @@
         <v>67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75" outlineLevel="0" r="19">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:14" ht="75" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -2916,10 +3165,10 @@
       <c r="F19" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="28" t="n">
-        <v>41262.5541666667</v>
-      </c>
-      <c r="H19" s="31" t="n">
+      <c r="G19" s="28">
+        <v>41262.554166666698</v>
+      </c>
+      <c r="H19" s="31">
         <v>0</v>
       </c>
       <c r="I19" s="30" t="s">
@@ -2928,18 +3177,18 @@
       <c r="J19" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="28" t="n">
-        <v>41262.5541666667</v>
-      </c>
-      <c r="L19" s="31" t="n">
+      <c r="K19" s="28">
+        <v>41262.554166666698</v>
+      </c>
+      <c r="L19" s="31">
         <v>1</v>
       </c>
       <c r="M19" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -2953,8 +3202,8 @@
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="150.75" outlineLevel="0" r="21">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:14" ht="150.75" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="25" t="s">
@@ -2972,10 +3221,10 @@
       <c r="F21" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="28" t="n">
-        <v>41262.5590277778</v>
-      </c>
-      <c r="H21" s="31" t="n">
+      <c r="G21" s="28">
+        <v>41262.559027777803</v>
+      </c>
+      <c r="H21" s="31">
         <v>0</v>
       </c>
       <c r="I21" s="30" t="s">
@@ -2984,18 +3233,18 @@
       <c r="J21" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="28" t="n">
-        <v>41337.6381944445</v>
-      </c>
-      <c r="L21" s="29" t="n">
+      <c r="K21" s="28">
+        <v>41337.638194444502</v>
+      </c>
+      <c r="L21" s="29">
         <v>1</v>
       </c>
       <c r="M21" s="30" t="s">
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="150.75" outlineLevel="0" r="22">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:14" ht="150.75" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B22" s="25" t="s">
@@ -3013,22 +3262,22 @@
       <c r="F22" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="28" t="n">
-        <v>41262.5590277778</v>
-      </c>
-      <c r="H22" s="29" t="n">
+      <c r="G22" s="28">
+        <v>41262.559027777803</v>
+      </c>
+      <c r="H22" s="29">
         <v>1</v>
       </c>
       <c r="I22" s="30"/>
       <c r="J22" s="27"/>
       <c r="K22" s="28"/>
-      <c r="L22" s="29" t="n">
+      <c r="L22" s="29">
         <v>1</v>
       </c>
       <c r="M22" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="206.25" outlineLevel="0" r="23">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:14" ht="206.25" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B23" s="26" t="s">
@@ -3046,10 +3295,10 @@
       <c r="F23" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="28" t="n">
-        <v>41262.5729166667</v>
-      </c>
-      <c r="H23" s="31" t="n">
+      <c r="G23" s="28">
+        <v>41262.572916666701</v>
+      </c>
+      <c r="H23" s="31">
         <v>0</v>
       </c>
       <c r="I23" s="30" t="s">
@@ -3058,18 +3307,18 @@
       <c r="J23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="28" t="n">
-        <v>41337.6381944445</v>
-      </c>
-      <c r="L23" s="29" t="n">
+      <c r="K23" s="28">
+        <v>41337.638194444502</v>
+      </c>
+      <c r="L23" s="29">
         <v>1</v>
       </c>
       <c r="M23" s="30" t="s">
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:14" ht="15" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B24" s="23" t="s">
@@ -3083,8 +3332,8 @@
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90.75" outlineLevel="0" r="25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:14" ht="90.75" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B25" s="25" t="s">
@@ -3102,26 +3351,26 @@
       <c r="F25" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="28" t="n">
-        <v>41262.5791666667</v>
-      </c>
-      <c r="H25" s="29" t="n">
+      <c r="G25" s="28">
+        <v>41262.579166666699</v>
+      </c>
+      <c r="H25" s="29">
         <v>1</v>
       </c>
       <c r="I25" s="30"/>
       <c r="J25" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="28" t="n">
-        <v>41262.5791666667</v>
-      </c>
-      <c r="L25" s="29" t="n">
+      <c r="K25" s="28">
+        <v>41262.579166666699</v>
+      </c>
+      <c r="L25" s="29">
         <v>1</v>
       </c>
       <c r="M25" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="83.25" outlineLevel="0" r="26">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:14" ht="83.25" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="25" t="s">
@@ -3139,26 +3388,26 @@
       <c r="F26" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="28" t="n">
-        <v>41262.5868055556</v>
-      </c>
-      <c r="H26" s="29" t="n">
+      <c r="G26" s="28">
+        <v>41262.586805555598</v>
+      </c>
+      <c r="H26" s="29">
         <v>1</v>
       </c>
       <c r="I26" s="30"/>
       <c r="J26" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="28" t="n">
-        <v>41262.5868055556</v>
-      </c>
-      <c r="L26" s="29" t="n">
+      <c r="K26" s="28">
+        <v>41262.586805555598</v>
+      </c>
+      <c r="L26" s="29">
         <v>1</v>
       </c>
       <c r="M26" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="85.5" outlineLevel="0" r="27">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:14" ht="85.5" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B27" s="25" t="s">
@@ -3176,10 +3425,10 @@
       <c r="F27" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="28" t="n">
-        <v>41262.5923611111</v>
-      </c>
-      <c r="H27" s="31" t="n">
+      <c r="G27" s="28">
+        <v>41262.592361111099</v>
+      </c>
+      <c r="H27" s="31">
         <v>0</v>
       </c>
       <c r="I27" s="30" t="s">
@@ -3188,18 +3437,18 @@
       <c r="J27" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="28" t="n">
-        <v>41262.5645833333</v>
-      </c>
-      <c r="L27" s="31" t="n">
+      <c r="K27" s="28">
+        <v>41262.564583333296</v>
+      </c>
+      <c r="L27" s="31">
         <v>1</v>
       </c>
       <c r="M27" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="73.5" outlineLevel="0" r="28">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:14" ht="73.5" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B28" s="25" t="s">
@@ -3217,26 +3466,26 @@
       <c r="F28" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="28" t="n">
-        <v>41262.58125</v>
-      </c>
-      <c r="H28" s="29" t="n">
+      <c r="G28" s="28">
+        <v>41262.581250000003</v>
+      </c>
+      <c r="H28" s="29">
         <v>1</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="28" t="n">
-        <v>41262.58125</v>
-      </c>
-      <c r="L28" s="29" t="n">
+      <c r="K28" s="28">
+        <v>41262.581250000003</v>
+      </c>
+      <c r="L28" s="29">
         <v>1</v>
       </c>
       <c r="M28" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="98.25" outlineLevel="0" r="29">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:14" ht="98.25" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B29" s="26" t="s">
@@ -3254,26 +3503,26 @@
       <c r="F29" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="28" t="n">
-        <v>41262.5819444444</v>
-      </c>
-      <c r="H29" s="29" t="n">
+      <c r="G29" s="28">
+        <v>41262.581944444399</v>
+      </c>
+      <c r="H29" s="29">
         <v>1</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="28" t="n">
-        <v>41262.5819444444</v>
-      </c>
-      <c r="L29" s="29" t="n">
+      <c r="K29" s="28">
+        <v>41262.581944444399</v>
+      </c>
+      <c r="L29" s="29">
         <v>1</v>
       </c>
       <c r="M29" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="30">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:14" ht="90" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -3291,10 +3540,10 @@
       <c r="F30" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G30" s="28" t="n">
-        <v>41262.5826388889</v>
-      </c>
-      <c r="H30" s="31" t="n">
+      <c r="G30" s="28">
+        <v>41262.582638888904</v>
+      </c>
+      <c r="H30" s="31">
         <v>0</v>
       </c>
       <c r="I30" s="30" t="s">
@@ -3303,18 +3552,18 @@
       <c r="J30" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="28" t="n">
-        <v>41262.5645833333</v>
-      </c>
-      <c r="L30" s="29" t="n">
+      <c r="K30" s="28">
+        <v>41262.564583333296</v>
+      </c>
+      <c r="L30" s="29">
         <v>1</v>
       </c>
       <c r="M30" s="30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="171.35" outlineLevel="0" r="31">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:14" ht="171.25" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B31" s="25" t="s">
@@ -3332,10 +3581,10 @@
       <c r="F31" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="28" t="n">
-        <v>41262.5958333333</v>
-      </c>
-      <c r="H31" s="31" t="n">
+      <c r="G31" s="28">
+        <v>41262.595833333296</v>
+      </c>
+      <c r="H31" s="31">
         <v>0</v>
       </c>
       <c r="I31" s="30" t="s">
@@ -3344,18 +3593,18 @@
       <c r="J31" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="28" t="n">
-        <v>41262.5958333333</v>
-      </c>
-      <c r="L31" s="31" t="n">
+      <c r="K31" s="28">
+        <v>41262.595833333296</v>
+      </c>
+      <c r="L31" s="31">
         <v>1</v>
       </c>
       <c r="M31" s="30" t="s">
         <v>138</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="171.35" outlineLevel="0" r="32">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:14" ht="171.25" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B32" s="25" t="s">
@@ -3373,10 +3622,10 @@
       <c r="F32" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="28" t="n">
-        <v>41262.6013888889</v>
-      </c>
-      <c r="H32" s="31" t="n">
+      <c r="G32" s="28">
+        <v>41262.601388888899</v>
+      </c>
+      <c r="H32" s="31">
         <v>0</v>
       </c>
       <c r="I32" s="30" t="s">
@@ -3385,21 +3634,21 @@
       <c r="J32" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="28" t="n">
-        <v>41262.6013888889</v>
-      </c>
-      <c r="L32" s="31" t="n">
+      <c r="K32" s="28">
+        <v>41262.601388888899</v>
+      </c>
+      <c r="L32" s="31">
         <v>1</v>
       </c>
       <c r="M32" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="N32" s="0" t="s">
+      <c r="N32" t="s">
         <v>145</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="153" outlineLevel="0" r="33">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:13" ht="153" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B33" s="25" t="s">
@@ -3417,10 +3666,10 @@
       <c r="F33" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G33" s="28" t="n">
-        <v>41262.6041666667</v>
-      </c>
-      <c r="H33" s="31" t="n">
+      <c r="G33" s="28">
+        <v>41262.604166666701</v>
+      </c>
+      <c r="H33" s="31">
         <v>0</v>
       </c>
       <c r="I33" s="30" t="s">
@@ -3429,18 +3678,18 @@
       <c r="J33" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K33" s="28" t="n">
-        <v>41337.6576388889</v>
-      </c>
-      <c r="L33" s="29" t="n">
+      <c r="K33" s="28">
+        <v>41337.657638888901</v>
+      </c>
+      <c r="L33" s="29">
         <v>1</v>
       </c>
       <c r="M33" s="30" t="s">
         <v>152</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="109.5" outlineLevel="0" r="34">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:13" ht="109.5" customHeight="1">
+      <c r="A34" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B34" s="26" t="s">
@@ -3458,26 +3707,26 @@
       <c r="F34" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="28" t="n">
-        <v>41262.6020833333</v>
-      </c>
-      <c r="H34" s="29" t="n">
+      <c r="G34" s="28">
+        <v>41262.602083333302</v>
+      </c>
+      <c r="H34" s="29">
         <v>1</v>
       </c>
       <c r="I34" s="30"/>
       <c r="J34" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="28" t="n">
-        <v>41337.6020833333</v>
-      </c>
-      <c r="L34" s="29" t="n">
+      <c r="K34" s="28">
+        <v>41337.602083333302</v>
+      </c>
+      <c r="L34" s="29">
         <v>1</v>
       </c>
       <c r="M34" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="124.5" outlineLevel="0" r="35">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:13" ht="124.5" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B35" s="26" t="s">
@@ -3495,10 +3744,10 @@
       <c r="F35" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G35" s="28" t="n">
+      <c r="G35" s="28">
         <v>41262.6027777778</v>
       </c>
-      <c r="H35" s="31" t="n">
+      <c r="H35" s="31">
         <v>0</v>
       </c>
       <c r="I35" s="30" t="s">
@@ -3506,15 +3755,15 @@
       </c>
       <c r="J35" s="27"/>
       <c r="K35" s="28"/>
-      <c r="L35" s="29" t="n">
+      <c r="L35" s="29">
         <v>1</v>
       </c>
       <c r="M35" s="30" t="s">
         <v>164</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="109.5" outlineLevel="0" r="36">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:13" ht="109.5" customHeight="1">
+      <c r="A36" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B36" s="26" t="s">
@@ -3532,22 +3781,22 @@
       <c r="F36" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="28" t="n">
-        <v>41262.6034722222</v>
-      </c>
-      <c r="H36" s="29" t="n">
+      <c r="G36" s="28">
+        <v>41262.603472222203</v>
+      </c>
+      <c r="H36" s="29">
         <v>1</v>
       </c>
       <c r="I36" s="30"/>
       <c r="J36" s="27"/>
       <c r="K36" s="28"/>
-      <c r="L36" s="31" t="n">
+      <c r="L36" s="31">
         <v>1</v>
       </c>
       <c r="M36" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="93.75" outlineLevel="0" r="37">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:13" ht="93.75" customHeight="1">
+      <c r="A37" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B37" s="26" t="s">
@@ -3565,10 +3814,10 @@
       <c r="F37" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="28" t="n">
-        <v>41262.6041666667</v>
-      </c>
-      <c r="H37" s="31" t="n">
+      <c r="G37" s="28">
+        <v>41262.604166666701</v>
+      </c>
+      <c r="H37" s="31">
         <v>0</v>
       </c>
       <c r="I37" s="30" t="s">
@@ -3577,18 +3826,18 @@
       <c r="J37" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K37" s="28" t="n">
-        <v>40973.6645833333</v>
-      </c>
-      <c r="L37" s="31" t="n">
+      <c r="K37" s="28">
+        <v>40973.664583333302</v>
+      </c>
+      <c r="L37" s="31">
         <v>1</v>
       </c>
       <c r="M37" s="30" t="s">
         <v>176</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="109.5" outlineLevel="0" r="38">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:13" ht="109.5" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>177</v>
       </c>
       <c r="B38" s="26" t="s">
@@ -3606,26 +3855,26 @@
       <c r="F38" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="28" t="n">
-        <v>41262.6048611111</v>
-      </c>
-      <c r="H38" s="29" t="n">
+      <c r="G38" s="28">
+        <v>41262.604861111096</v>
+      </c>
+      <c r="H38" s="29">
         <v>1</v>
       </c>
       <c r="I38" s="30"/>
       <c r="J38" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K38" s="28" t="n">
-        <v>41262.6048611111</v>
-      </c>
-      <c r="L38" s="29" t="n">
+      <c r="K38" s="28">
+        <v>41262.604861111096</v>
+      </c>
+      <c r="L38" s="29">
         <v>1</v>
       </c>
       <c r="M38" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="124.5" outlineLevel="0" r="39">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:13" ht="124.5" customHeight="1">
+      <c r="A39" s="2" t="s">
         <v>182</v>
       </c>
       <c r="B39" s="26" t="s">
@@ -3643,10 +3892,10 @@
       <c r="F39" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="28" t="n">
-        <v>41262.6055555556</v>
-      </c>
-      <c r="H39" s="31" t="n">
+      <c r="G39" s="28">
+        <v>41262.605555555601</v>
+      </c>
+      <c r="H39" s="31">
         <v>0</v>
       </c>
       <c r="I39" s="30" t="s">
@@ -3655,18 +3904,18 @@
       <c r="J39" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K39" s="28" t="n">
-        <v>41262.6055555556</v>
-      </c>
-      <c r="L39" s="29" t="n">
+      <c r="K39" s="28">
+        <v>41262.605555555601</v>
+      </c>
+      <c r="L39" s="29">
         <v>1</v>
       </c>
       <c r="M39" s="30" t="s">
         <v>188</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="124.5" outlineLevel="0" r="40">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:13" ht="124.5" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B40" s="26" t="s">
@@ -3684,26 +3933,26 @@
       <c r="F40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="28" t="n">
-        <v>41262.6138888889</v>
-      </c>
-      <c r="H40" s="29" t="n">
+      <c r="G40" s="28">
+        <v>41262.613888888904</v>
+      </c>
+      <c r="H40" s="29">
         <v>1</v>
       </c>
       <c r="I40" s="30"/>
       <c r="J40" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K40" s="28" t="n">
-        <v>41262.6138888889</v>
-      </c>
-      <c r="L40" s="29" t="n">
+      <c r="K40" s="28">
+        <v>41262.613888888904</v>
+      </c>
+      <c r="L40" s="29">
         <v>1</v>
       </c>
       <c r="M40" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="41">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:13" ht="15" customHeight="1">
+      <c r="A41" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B41" s="23" t="s">
@@ -3716,8 +3965,8 @@
       <c r="J41" s="24"/>
       <c r="K41" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="42">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:13" ht="100" customHeight="1">
+      <c r="A42" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B42" s="25" t="s">
@@ -3735,26 +3984,26 @@
       <c r="F42" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="28" t="n">
+      <c r="G42" s="28">
         <v>41262.6159722222</v>
       </c>
-      <c r="H42" s="29" t="n">
+      <c r="H42" s="29">
         <v>1</v>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K42" s="28" t="n">
+      <c r="K42" s="28">
         <v>41262.6159722222</v>
       </c>
-      <c r="L42" s="29" t="n">
+      <c r="L42" s="29">
         <v>1</v>
       </c>
       <c r="M42" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="43">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:13" ht="100" customHeight="1">
+      <c r="A43" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B43" s="25" t="s">
@@ -3772,26 +4021,26 @@
       <c r="F43" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="28" t="n">
+      <c r="G43" s="28">
         <v>41262.6159722222</v>
       </c>
-      <c r="H43" s="29" t="n">
+      <c r="H43" s="29">
         <v>1</v>
       </c>
       <c r="I43" s="30"/>
       <c r="J43" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K43" s="28" t="n">
+      <c r="K43" s="28">
         <v>41262.6159722222</v>
       </c>
-      <c r="L43" s="29" t="n">
+      <c r="L43" s="29">
         <v>1</v>
       </c>
       <c r="M43" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="44">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:13" ht="100" customHeight="1">
+      <c r="A44" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B44" s="25" t="s">
@@ -3809,10 +4058,10 @@
       <c r="F44" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="28" t="n">
+      <c r="G44" s="28">
         <v>41262.6159722222</v>
       </c>
-      <c r="H44" s="38" t="n">
+      <c r="H44" s="38">
         <v>9</v>
       </c>
       <c r="I44" s="30" t="s">
@@ -3827,8 +4076,8 @@
         <v>205</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="45">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:13" ht="100" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B45" s="25" t="s">
@@ -3846,26 +4095,26 @@
       <c r="F45" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="28" t="n">
-        <v>41262.6166666667</v>
-      </c>
-      <c r="H45" s="29" t="n">
+      <c r="G45" s="28">
+        <v>41262.616666666698</v>
+      </c>
+      <c r="H45" s="29">
         <v>1</v>
       </c>
       <c r="I45" s="30"/>
       <c r="J45" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="28" t="n">
-        <v>41262.6166666667</v>
-      </c>
-      <c r="L45" s="29" t="n">
+      <c r="K45" s="28">
+        <v>41262.616666666698</v>
+      </c>
+      <c r="L45" s="29">
         <v>1</v>
       </c>
       <c r="M45" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="46">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:13" ht="100" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B46" s="25" t="s">
@@ -3883,26 +4132,26 @@
       <c r="F46" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="28" t="n">
-        <v>41262.6166666667</v>
-      </c>
-      <c r="H46" s="29" t="n">
+      <c r="G46" s="28">
+        <v>41262.616666666698</v>
+      </c>
+      <c r="H46" s="29">
         <v>1</v>
       </c>
       <c r="I46" s="30"/>
       <c r="J46" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K46" s="28" t="n">
-        <v>41262.6166666667</v>
-      </c>
-      <c r="L46" s="29" t="n">
+      <c r="K46" s="28">
+        <v>41262.616666666698</v>
+      </c>
+      <c r="L46" s="29">
         <v>1</v>
       </c>
       <c r="M46" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="47">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:13" ht="100" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B47" s="25" t="s">
@@ -3920,26 +4169,26 @@
       <c r="F47" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="28" t="n">
-        <v>41262.6180555556</v>
-      </c>
-      <c r="H47" s="29" t="n">
+      <c r="G47" s="28">
+        <v>41262.618055555598</v>
+      </c>
+      <c r="H47" s="29">
         <v>1</v>
       </c>
       <c r="I47" s="30"/>
       <c r="J47" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="28" t="n">
-        <v>41262.6180555556</v>
-      </c>
-      <c r="L47" s="29" t="n">
+      <c r="K47" s="28">
+        <v>41262.618055555598</v>
+      </c>
+      <c r="L47" s="29">
         <v>1</v>
       </c>
       <c r="M47" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="48">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:13" ht="100" customHeight="1">
+      <c r="A48" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B48" s="25" t="s">
@@ -3957,28 +4206,28 @@
       <c r="F48" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="28" t="n">
-        <v>41262.61875</v>
-      </c>
-      <c r="H48" s="31" t="n">
+      <c r="G48" s="28">
+        <v>41262.618750000001</v>
+      </c>
+      <c r="H48" s="31">
         <v>0</v>
       </c>
       <c r="I48" s="30"/>
       <c r="J48" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K48" s="28" t="n">
-        <v>41337.6770833333</v>
-      </c>
-      <c r="L48" s="29" t="n">
+      <c r="K48" s="28">
+        <v>41337.677083333299</v>
+      </c>
+      <c r="L48" s="29">
         <v>1</v>
       </c>
       <c r="M48" s="30" t="s">
         <v>214</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.95" outlineLevel="0" r="49">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:17" ht="100" customHeight="1">
+      <c r="A49" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B49" s="25" t="s">
@@ -3996,25 +4245,25 @@
       <c r="F49" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="28" t="n">
-        <v>41262.6194444444</v>
-      </c>
-      <c r="H49" s="29" t="n">
+      <c r="G49" s="28">
+        <v>41262.619444444397</v>
+      </c>
+      <c r="H49" s="29">
         <v>1</v>
       </c>
       <c r="I49" s="30"/>
       <c r="J49" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="28" t="n">
-        <v>41262.6194444444</v>
-      </c>
-      <c r="L49" s="29" t="n">
+      <c r="K49" s="28">
+        <v>41262.619444444397</v>
+      </c>
+      <c r="L49" s="29">
         <v>1</v>
       </c>
       <c r="M49" s="30"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="50" s="44">
+    <row r="50" spans="1:17" s="44" customFormat="1" ht="105" customHeight="1">
       <c r="A50" s="39" t="s">
         <v>217</v>
       </c>
@@ -4033,10 +4282,10 @@
       <c r="F50" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="41" t="n">
-        <v>41262.6194444444</v>
-      </c>
-      <c r="H50" s="38" t="n">
+      <c r="G50" s="41">
+        <v>41262.619444444397</v>
+      </c>
+      <c r="H50" s="38">
         <v>9</v>
       </c>
       <c r="I50" s="42" t="s">
@@ -4051,7 +4300,7 @@
         <v>220</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="51">
+    <row r="51" spans="1:17" ht="36" customHeight="1">
       <c r="A51" s="15"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -4070,29 +4319,29 @@
       <c r="P51" s="22"/>
       <c r="Q51" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="52">
+    <row r="52" spans="1:17" ht="15.75" customHeight="1">
       <c r="B52" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
       <c r="F52" s="46"/>
       <c r="G52" s="46"/>
       <c r="J52" s="46"/>
       <c r="K52" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="53">
+    <row r="53" spans="1:17" ht="15" customHeight="1">
       <c r="B53" s="23"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
       <c r="F53" s="46"/>
       <c r="G53" s="46"/>
       <c r="J53" s="46"/>
       <c r="K53" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75" outlineLevel="0" r="54">
+    <row r="54" spans="1:17" ht="75" customHeight="1">
       <c r="B54" s="26" t="s">
         <v>222</v>
       </c>
@@ -4108,13 +4357,11 @@
       <c r="F54" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G54" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H54" s="21" t="n">
+      <c r="G54" s="47">
+        <f t="shared" ref="G54:G64" ca="1" si="0">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H54" s="21">
         <v>1</v>
       </c>
       <c r="I54" s="30" t="s">
@@ -4122,14 +4369,14 @@
       </c>
       <c r="J54" s="27"/>
       <c r="K54" s="27"/>
-      <c r="L54" s="21" t="n">
+      <c r="L54" s="21">
         <v>1</v>
       </c>
       <c r="M54" s="30" t="s">
         <v>228</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.5" outlineLevel="0" r="55">
+    <row r="55" spans="1:17" ht="79.5" customHeight="1">
       <c r="B55" s="25" t="s">
         <v>229</v>
       </c>
@@ -4141,13 +4388,11 @@
       <c r="F55" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G55" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H55" s="21" t="n">
+      <c r="G55" s="47">
+        <f t="shared" ca="1" si="0"/>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H55" s="21">
         <v>9</v>
       </c>
       <c r="I55" s="30" t="s">
@@ -4155,12 +4400,12 @@
       </c>
       <c r="J55" s="27"/>
       <c r="K55" s="27"/>
-      <c r="L55" s="21" t="n">
+      <c r="L55" s="21">
         <v>1</v>
       </c>
       <c r="M55" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75.75" outlineLevel="0" r="56">
+    <row r="56" spans="1:17" ht="75.75" customHeight="1">
       <c r="B56" s="25" t="s">
         <v>232</v>
       </c>
@@ -4172,13 +4417,11 @@
       <c r="F56" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G56" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H56" s="21" t="n">
+      <c r="G56" s="47">
+        <f t="shared" ca="1" si="0"/>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H56" s="21">
         <v>1</v>
       </c>
       <c r="I56" s="30" t="s">
@@ -4186,12 +4429,12 @@
       </c>
       <c r="J56" s="27"/>
       <c r="K56" s="27"/>
-      <c r="L56" s="21" t="n">
+      <c r="L56" s="21">
         <v>1</v>
       </c>
       <c r="M56" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="70.5" outlineLevel="0" r="57">
+    <row r="57" spans="1:17" ht="70.5" customHeight="1">
       <c r="B57" s="25" t="s">
         <v>234</v>
       </c>
@@ -4207,24 +4450,22 @@
       <c r="F57" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G57" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H57" s="21" t="n">
+      <c r="G57" s="47">
+        <f t="shared" ca="1" si="0"/>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H57" s="21">
         <v>1</v>
       </c>
       <c r="I57" s="30"/>
       <c r="J57" s="27"/>
       <c r="K57" s="27"/>
-      <c r="L57" s="21" t="n">
+      <c r="L57" s="21">
         <v>1</v>
       </c>
       <c r="M57" s="30"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="41.25" outlineLevel="0" r="58" s="44">
+    <row r="58" spans="1:17" s="44" customFormat="1" ht="41.25" customHeight="1">
       <c r="A58" s="48"/>
       <c r="B58" s="49" t="s">
         <v>237</v>
@@ -4241,24 +4482,22 @@
       <c r="F58" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G58" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H58" s="52" t="n">
+      <c r="G58" s="51">
+        <f t="shared" ca="1" si="0"/>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H58" s="52">
         <v>1</v>
       </c>
       <c r="I58" s="42"/>
       <c r="J58" s="40"/>
       <c r="K58" s="40"/>
-      <c r="L58" s="52" t="n">
+      <c r="L58" s="52">
         <v>1</v>
       </c>
       <c r="M58" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="41.25" outlineLevel="0" r="59" s="44">
+    <row r="59" spans="1:17" s="44" customFormat="1" ht="41.25" customHeight="1">
       <c r="A59" s="48"/>
       <c r="B59" s="49" t="s">
         <v>241</v>
@@ -4275,13 +4514,11 @@
       <c r="F59" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G59" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H59" s="52" t="n">
+      <c r="G59" s="51">
+        <f t="shared" ca="1" si="0"/>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H59" s="52">
         <v>9</v>
       </c>
       <c r="I59" s="40"/>
@@ -4297,39 +4534,37 @@
         <v>243</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="60">
+    <row r="60" spans="1:17" ht="60" customHeight="1">
       <c r="B60" s="25" t="s">
         <v>244</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="4" t="s">
         <v>246</v>
       </c>
       <c r="F60" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G60" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H60" s="21" t="n">
+      <c r="G60" s="47">
+        <f t="shared" ca="1" si="0"/>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H60" s="21">
         <v>9</v>
       </c>
       <c r="I60" s="30"/>
       <c r="J60" s="27"/>
       <c r="K60" s="27"/>
-      <c r="L60" s="35" t="n">
+      <c r="L60" s="35">
         <v>1</v>
       </c>
       <c r="M60" s="30" t="s">
         <v>247</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="61">
+    <row r="61" spans="1:17" ht="105" customHeight="1">
       <c r="B61" s="26" t="s">
         <v>248</v>
       </c>
@@ -4345,33 +4580,29 @@
       <c r="F61" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G61" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H61" s="21" t="n">
+      <c r="G61" s="47">
+        <f t="shared" ca="1" si="0"/>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H61" s="21">
         <v>1</v>
       </c>
       <c r="I61" s="30"/>
       <c r="J61" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K61" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L61" s="21" t="n">
+      <c r="K61" s="47">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="L61" s="21">
         <v>1</v>
       </c>
       <c r="M61" s="30" t="s">
         <v>250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="62">
+    <row r="62" spans="1:17" ht="105" customHeight="1">
       <c r="B62" s="26" t="s">
         <v>251</v>
       </c>
@@ -4387,33 +4618,29 @@
       <c r="F62" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G62" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H62" s="21" t="n">
+      <c r="G62" s="47">
+        <f t="shared" ca="1" si="0"/>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H62" s="21">
         <v>1</v>
       </c>
       <c r="I62" s="30"/>
       <c r="J62" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K62" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L62" s="21" t="n">
+      <c r="K62" s="47">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="L62" s="21">
         <v>1</v>
       </c>
       <c r="M62" s="30" t="s">
         <v>252</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="63">
+    <row r="63" spans="1:17" ht="105" customHeight="1">
       <c r="B63" s="26" t="s">
         <v>253</v>
       </c>
@@ -4429,13 +4656,11 @@
       <c r="F63" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G63" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H63" s="21" t="n">
+      <c r="G63" s="47">
+        <f t="shared" ca="1" si="0"/>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H63" s="21">
         <v>1</v>
       </c>
       <c r="I63" s="30" t="s">
@@ -4444,20 +4669,18 @@
       <c r="J63" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K63" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L63" s="21" t="n">
+      <c r="K63" s="47">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="L63" s="21">
         <v>1</v>
       </c>
       <c r="M63" s="30" t="s">
         <v>255</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45.75" outlineLevel="0" r="64" s="44">
+    <row r="64" spans="1:17" s="44" customFormat="1" ht="45.75" customHeight="1">
       <c r="A64" s="48"/>
       <c r="B64" s="49" t="s">
         <v>256</v>
@@ -4474,13 +4697,11 @@
       <c r="F64" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G64" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H64" s="52" t="n">
+      <c r="G64" s="51">
+        <f t="shared" ca="1" si="0"/>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H64" s="52">
         <v>1</v>
       </c>
       <c r="I64" s="42" t="s">
@@ -4488,12 +4709,12 @@
       </c>
       <c r="J64" s="40"/>
       <c r="K64" s="40"/>
-      <c r="L64" s="52" t="n">
+      <c r="L64" s="52">
         <v>1</v>
       </c>
       <c r="M64" s="42"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="65">
+    <row r="65" spans="1:17" ht="36" customHeight="1">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -4512,7 +4733,7 @@
       <c r="P65" s="22"/>
       <c r="Q65" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="66">
+    <row r="66" spans="1:17" ht="15.75" customHeight="1">
       <c r="B66" s="23" t="s">
         <v>258</v>
       </c>
@@ -4521,8 +4742,8 @@
       <c r="J66" s="46"/>
       <c r="K66" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="67">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:17" ht="15" customHeight="1">
+      <c r="A67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B67" s="23" t="s">
@@ -4536,8 +4757,8 @@
       <c r="J67" s="46"/>
       <c r="K67" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="73.5" outlineLevel="0" r="68">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:17" ht="73.5" customHeight="1">
+      <c r="A68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B68" s="25" t="s">
@@ -4559,18 +4780,18 @@
       <c r="J68" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K68" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="L68" s="21" t="n">
+      <c r="K68" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="L68" s="21">
         <v>1</v>
       </c>
       <c r="M68" s="30" t="s">
         <v>264</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="72" outlineLevel="0" r="69">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:17" ht="72" customHeight="1">
+      <c r="A69" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B69" s="25" t="s">
@@ -4592,17 +4813,17 @@
       <c r="J69" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K69" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="L69" s="21" t="n">
+      <c r="K69" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="L69" s="21">
         <v>1</v>
       </c>
       <c r="M69" s="30" t="s">
         <v>268</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="70">
+    <row r="70" spans="1:17" ht="15" customHeight="1">
       <c r="B70" s="23" t="s">
         <v>269</v>
       </c>
@@ -4611,7 +4832,7 @@
       <c r="J70" s="24"/>
       <c r="K70" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="61.5" outlineLevel="0" r="71">
+    <row r="71" spans="1:17" ht="61.5" customHeight="1">
       <c r="B71" s="25" t="s">
         <v>270</v>
       </c>
@@ -4621,10 +4842,10 @@
       <c r="F71" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G71" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="H71" s="21" t="n">
+      <c r="G71" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="H71" s="21">
         <v>1</v>
       </c>
       <c r="I71" s="30" t="s">
@@ -4633,17 +4854,17 @@
       <c r="J71" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K71" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="L71" s="21" t="n">
+      <c r="K71" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="L71" s="21">
         <v>1</v>
       </c>
       <c r="M71" s="30" t="s">
         <v>272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="72">
+    <row r="72" spans="1:17" ht="15" customHeight="1">
       <c r="B72" s="23" t="s">
         <v>194</v>
       </c>
@@ -4652,7 +4873,7 @@
       <c r="J72" s="24"/>
       <c r="K72" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="73">
+    <row r="73" spans="1:17" ht="105" customHeight="1">
       <c r="B73" s="25" t="s">
         <v>273</v>
       </c>
@@ -4668,21 +4889,21 @@
       <c r="F73" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G73" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="H73" s="21" t="n">
+      <c r="G73" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="H73" s="21">
         <v>1</v>
       </c>
       <c r="I73" s="30"/>
       <c r="J73" s="27"/>
       <c r="K73" s="27"/>
-      <c r="L73" s="21" t="n">
+      <c r="L73" s="21">
         <v>1</v>
       </c>
       <c r="M73" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="74">
+    <row r="74" spans="1:17" ht="105" customHeight="1">
       <c r="B74" s="25" t="s">
         <v>275</v>
       </c>
@@ -4698,21 +4919,21 @@
       <c r="F74" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G74" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="H74" s="21" t="n">
+      <c r="G74" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="H74" s="21">
         <v>1</v>
       </c>
       <c r="I74" s="30"/>
       <c r="J74" s="27"/>
       <c r="K74" s="27"/>
-      <c r="L74" s="21" t="n">
+      <c r="L74" s="21">
         <v>1</v>
       </c>
       <c r="M74" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="75">
+    <row r="75" spans="1:17" ht="105" customHeight="1">
       <c r="B75" s="25" t="s">
         <v>276</v>
       </c>
@@ -4728,21 +4949,21 @@
       <c r="F75" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G75" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="H75" s="21" t="n">
+      <c r="G75" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="H75" s="21">
         <v>1</v>
       </c>
       <c r="I75" s="30"/>
       <c r="J75" s="27"/>
       <c r="K75" s="27"/>
-      <c r="L75" s="21" t="n">
+      <c r="L75" s="21">
         <v>1</v>
       </c>
       <c r="M75" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="76">
+    <row r="76" spans="1:17" ht="105" customHeight="1">
       <c r="B76" s="25" t="s">
         <v>277</v>
       </c>
@@ -4758,21 +4979,21 @@
       <c r="F76" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G76" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="H76" s="21" t="n">
+      <c r="G76" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="H76" s="21">
         <v>1</v>
       </c>
       <c r="I76" s="30"/>
       <c r="J76" s="27"/>
       <c r="K76" s="27"/>
-      <c r="L76" s="21" t="n">
+      <c r="L76" s="21">
         <v>1</v>
       </c>
       <c r="M76" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="77">
+    <row r="77" spans="1:17" ht="105" customHeight="1">
       <c r="B77" s="25" t="s">
         <v>278</v>
       </c>
@@ -4788,21 +5009,21 @@
       <c r="F77" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G77" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="H77" s="21" t="n">
+      <c r="G77" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="H77" s="21">
         <v>1</v>
       </c>
       <c r="I77" s="30"/>
       <c r="J77" s="27"/>
       <c r="K77" s="27"/>
-      <c r="L77" s="21" t="n">
+      <c r="L77" s="21">
         <v>1</v>
       </c>
       <c r="M77" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="78">
+    <row r="78" spans="1:17" ht="105" customHeight="1">
       <c r="B78" s="25" t="s">
         <v>279</v>
       </c>
@@ -4818,21 +5039,21 @@
       <c r="F78" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G78" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="H78" s="21" t="n">
+      <c r="G78" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="H78" s="21">
         <v>1</v>
       </c>
       <c r="I78" s="30"/>
       <c r="J78" s="27"/>
       <c r="K78" s="27"/>
-      <c r="L78" s="21" t="n">
+      <c r="L78" s="21">
         <v>1</v>
       </c>
       <c r="M78" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="79">
+    <row r="79" spans="1:17" ht="105" customHeight="1">
       <c r="B79" s="25" t="s">
         <v>280</v>
       </c>
@@ -4848,21 +5069,21 @@
       <c r="F79" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G79" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="H79" s="21" t="n">
+      <c r="G79" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="H79" s="21">
         <v>1</v>
       </c>
       <c r="I79" s="30"/>
       <c r="J79" s="27"/>
       <c r="K79" s="27"/>
-      <c r="L79" s="21" t="n">
+      <c r="L79" s="21">
         <v>1</v>
       </c>
       <c r="M79" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="80">
+    <row r="80" spans="1:17" ht="105" customHeight="1">
       <c r="B80" s="25" t="s">
         <v>281</v>
       </c>
@@ -4878,21 +5099,21 @@
       <c r="F80" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G80" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="H80" s="21" t="n">
+      <c r="G80" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="H80" s="21">
         <v>1</v>
       </c>
       <c r="I80" s="30"/>
       <c r="J80" s="27"/>
       <c r="K80" s="27"/>
-      <c r="L80" s="21" t="n">
+      <c r="L80" s="21">
         <v>1</v>
       </c>
       <c r="M80" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="81">
+    <row r="81" spans="2:13" ht="105" customHeight="1">
       <c r="B81" s="25" t="s">
         <v>282</v>
       </c>
@@ -4908,21 +5129,21 @@
       <c r="F81" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G81" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="H81" s="21" t="n">
+      <c r="G81" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="H81" s="21">
         <v>1</v>
       </c>
       <c r="I81" s="30"/>
       <c r="J81" s="27"/>
       <c r="K81" s="27"/>
-      <c r="L81" s="21" t="n">
+      <c r="L81" s="21">
         <v>1</v>
       </c>
       <c r="M81" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="82">
+    <row r="82" spans="2:13" ht="105" customHeight="1">
       <c r="B82" s="25" t="s">
         <v>283</v>
       </c>
@@ -4938,23 +5159,23 @@
       <c r="F82" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G82" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="H82" s="21" t="n">
+      <c r="G82" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="H82" s="21">
         <v>9</v>
       </c>
       <c r="I82" s="30"/>
       <c r="J82" s="27"/>
       <c r="K82" s="27"/>
-      <c r="L82" s="21" t="n">
+      <c r="L82" s="21">
         <v>1</v>
       </c>
       <c r="M82" s="30" t="s">
         <v>284</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="83">
+    <row r="83" spans="2:13" ht="105" customHeight="1">
       <c r="B83" s="25" t="s">
         <v>285</v>
       </c>
@@ -4970,21 +5191,21 @@
       <c r="F83" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G83" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="H83" s="21" t="n">
+      <c r="G83" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="H83" s="21">
         <v>1</v>
       </c>
       <c r="I83" s="30"/>
       <c r="J83" s="27"/>
       <c r="K83" s="27"/>
-      <c r="L83" s="21" t="n">
+      <c r="L83" s="21">
         <v>1</v>
       </c>
       <c r="M83" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="84">
+    <row r="84" spans="2:13" ht="105" customHeight="1">
       <c r="B84" s="25" t="s">
         <v>286</v>
       </c>
@@ -5000,21 +5221,21 @@
       <c r="F84" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G84" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="H84" s="21" t="n">
+      <c r="G84" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="H84" s="21">
         <v>1</v>
       </c>
       <c r="I84" s="30"/>
       <c r="J84" s="27"/>
       <c r="K84" s="27"/>
-      <c r="L84" s="21" t="n">
+      <c r="L84" s="21">
         <v>1</v>
       </c>
       <c r="M84" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="85">
+    <row r="85" spans="2:13" ht="105" customHeight="1">
       <c r="B85" s="25" t="s">
         <v>288</v>
       </c>
@@ -5030,21 +5251,21 @@
       <c r="F85" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G85" s="47" t="n">
-        <v>41338.5395833333</v>
-      </c>
-      <c r="H85" s="21" t="n">
+      <c r="G85" s="47">
+        <v>41338.539583333302</v>
+      </c>
+      <c r="H85" s="21">
         <v>1</v>
       </c>
       <c r="I85" s="30"/>
       <c r="J85" s="27"/>
       <c r="K85" s="27"/>
-      <c r="L85" s="21" t="n">
+      <c r="L85" s="21">
         <v>1</v>
       </c>
       <c r="M85" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="86">
+    <row r="86" spans="2:13" ht="105" customHeight="1">
       <c r="B86" s="25" t="s">
         <v>289</v>
       </c>
@@ -5060,21 +5281,21 @@
       <c r="F86" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G86" s="47" t="n">
-        <v>41338.5395833333</v>
-      </c>
-      <c r="H86" s="21" t="n">
+      <c r="G86" s="47">
+        <v>41338.539583333302</v>
+      </c>
+      <c r="H86" s="21">
         <v>1</v>
       </c>
       <c r="I86" s="30"/>
       <c r="J86" s="27"/>
       <c r="K86" s="27"/>
-      <c r="L86" s="21" t="n">
+      <c r="L86" s="21">
         <v>1</v>
       </c>
       <c r="M86" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="87">
+    <row r="87" spans="2:13" ht="105" customHeight="1">
       <c r="B87" s="25" t="s">
         <v>290</v>
       </c>
@@ -5090,21 +5311,21 @@
       <c r="F87" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G87" s="47" t="n">
-        <v>41338.5395833333</v>
-      </c>
-      <c r="H87" s="21" t="n">
+      <c r="G87" s="47">
+        <v>41338.539583333302</v>
+      </c>
+      <c r="H87" s="21">
         <v>1</v>
       </c>
       <c r="I87" s="30"/>
       <c r="J87" s="27"/>
       <c r="K87" s="27"/>
-      <c r="L87" s="21" t="n">
+      <c r="L87" s="21">
         <v>1</v>
       </c>
       <c r="M87" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="88">
+    <row r="88" spans="2:13" ht="105" customHeight="1">
       <c r="B88" s="25" t="s">
         <v>291</v>
       </c>
@@ -5120,21 +5341,21 @@
       <c r="F88" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G88" s="47" t="n">
-        <v>41338.5395833333</v>
-      </c>
-      <c r="H88" s="21" t="n">
+      <c r="G88" s="47">
+        <v>41338.539583333302</v>
+      </c>
+      <c r="H88" s="21">
         <v>1</v>
       </c>
       <c r="I88" s="30"/>
       <c r="J88" s="27"/>
       <c r="K88" s="27"/>
-      <c r="L88" s="21" t="n">
+      <c r="L88" s="21">
         <v>1</v>
       </c>
       <c r="M88" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="89">
+    <row r="89" spans="2:13" ht="105" customHeight="1">
       <c r="B89" s="25" t="s">
         <v>292</v>
       </c>
@@ -5150,10 +5371,10 @@
       <c r="F89" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G89" s="47" t="n">
-        <v>41338.5395833333</v>
-      </c>
-      <c r="H89" s="21" t="n">
+      <c r="G89" s="47">
+        <v>41338.539583333302</v>
+      </c>
+      <c r="H89" s="21">
         <v>1</v>
       </c>
       <c r="I89" s="30" t="s">
@@ -5161,12 +5382,12 @@
       </c>
       <c r="J89" s="27"/>
       <c r="K89" s="27"/>
-      <c r="L89" s="21" t="n">
+      <c r="L89" s="21">
         <v>1</v>
       </c>
       <c r="M89" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="90">
+    <row r="90" spans="2:13" ht="105" customHeight="1">
       <c r="B90" s="25" t="s">
         <v>294</v>
       </c>
@@ -5182,10 +5403,10 @@
       <c r="F90" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G90" s="47" t="n">
-        <v>41338.5395833333</v>
-      </c>
-      <c r="H90" s="21" t="n">
+      <c r="G90" s="47">
+        <v>41338.539583333302</v>
+      </c>
+      <c r="H90" s="21">
         <v>9</v>
       </c>
       <c r="I90" s="30" t="s">
@@ -5193,12 +5414,12 @@
       </c>
       <c r="J90" s="27"/>
       <c r="K90" s="27"/>
-      <c r="L90" s="21" t="n">
+      <c r="L90" s="21">
         <v>1</v>
       </c>
       <c r="M90" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="91">
+    <row r="91" spans="2:13" ht="105" customHeight="1">
       <c r="B91" s="25" t="s">
         <v>281</v>
       </c>
@@ -5214,20 +5435,20 @@
       <c r="F91" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G91" s="47" t="n">
-        <v>41338.5409722222</v>
-      </c>
-      <c r="H91" s="21" t="n">
+      <c r="G91" s="47">
+        <v>41338.540972222203</v>
+      </c>
+      <c r="H91" s="21">
         <v>1</v>
       </c>
       <c r="J91" s="27"/>
       <c r="K91" s="27"/>
-      <c r="L91" s="21" t="n">
+      <c r="L91" s="21">
         <v>1</v>
       </c>
       <c r="M91" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="92">
+    <row r="92" spans="2:13" ht="105" customHeight="1">
       <c r="B92" s="25" t="s">
         <v>296</v>
       </c>
@@ -5243,21 +5464,21 @@
       <c r="F92" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G92" s="47" t="n">
-        <v>41338.5409722222</v>
-      </c>
-      <c r="H92" s="21" t="n">
+      <c r="G92" s="47">
+        <v>41338.540972222203</v>
+      </c>
+      <c r="H92" s="21">
         <v>1</v>
       </c>
       <c r="I92" s="30"/>
       <c r="J92" s="27"/>
       <c r="K92" s="27"/>
-      <c r="L92" s="21" t="n">
+      <c r="L92" s="21">
         <v>1</v>
       </c>
       <c r="M92" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="93">
+    <row r="93" spans="2:13" ht="105" customHeight="1">
       <c r="B93" s="25" t="s">
         <v>297</v>
       </c>
@@ -5273,21 +5494,21 @@
       <c r="F93" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G93" s="47" t="n">
-        <v>41338.5409722222</v>
-      </c>
-      <c r="H93" s="21" t="n">
+      <c r="G93" s="47">
+        <v>41338.540972222203</v>
+      </c>
+      <c r="H93" s="21">
         <v>1</v>
       </c>
       <c r="I93" s="30"/>
       <c r="J93" s="27"/>
       <c r="K93" s="27"/>
-      <c r="L93" s="21" t="n">
+      <c r="L93" s="21">
         <v>1</v>
       </c>
       <c r="M93" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="94">
+    <row r="94" spans="2:13" ht="105" customHeight="1">
       <c r="B94" s="25" t="s">
         <v>298</v>
       </c>
@@ -5303,21 +5524,21 @@
       <c r="F94" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G94" s="47" t="n">
-        <v>41338.5409722222</v>
-      </c>
-      <c r="H94" s="21" t="n">
+      <c r="G94" s="47">
+        <v>41338.540972222203</v>
+      </c>
+      <c r="H94" s="21">
         <v>1</v>
       </c>
       <c r="I94" s="30"/>
       <c r="J94" s="27"/>
       <c r="K94" s="27"/>
-      <c r="L94" s="21" t="n">
+      <c r="L94" s="21">
         <v>1</v>
       </c>
       <c r="M94" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="95">
+    <row r="95" spans="2:13" ht="105" customHeight="1">
       <c r="B95" s="25" t="s">
         <v>299</v>
       </c>
@@ -5333,21 +5554,21 @@
       <c r="F95" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G95" s="47" t="n">
-        <v>41338.5409722222</v>
-      </c>
-      <c r="H95" s="21" t="n">
+      <c r="G95" s="47">
+        <v>41338.540972222203</v>
+      </c>
+      <c r="H95" s="21">
         <v>1</v>
       </c>
       <c r="I95" s="30"/>
       <c r="J95" s="27"/>
       <c r="K95" s="27"/>
-      <c r="L95" s="21" t="n">
+      <c r="L95" s="21">
         <v>1</v>
       </c>
       <c r="M95" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="96">
+    <row r="96" spans="2:13" ht="105" customHeight="1">
       <c r="B96" s="25" t="s">
         <v>300</v>
       </c>
@@ -5363,21 +5584,21 @@
       <c r="F96" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G96" s="47" t="n">
-        <v>41338.5409722222</v>
-      </c>
-      <c r="H96" s="21" t="n">
+      <c r="G96" s="47">
+        <v>41338.540972222203</v>
+      </c>
+      <c r="H96" s="21">
         <v>1</v>
       </c>
       <c r="I96" s="30"/>
       <c r="J96" s="27"/>
       <c r="K96" s="27"/>
-      <c r="L96" s="21" t="n">
+      <c r="L96" s="21">
         <v>1</v>
       </c>
       <c r="M96" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="97">
+    <row r="97" spans="1:13" ht="105" customHeight="1">
       <c r="B97" s="25" t="s">
         <v>248</v>
       </c>
@@ -5393,21 +5614,21 @@
       <c r="F97" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G97" s="47" t="n">
-        <v>41338.5409722222</v>
-      </c>
-      <c r="H97" s="21" t="n">
+      <c r="G97" s="47">
+        <v>41338.540972222203</v>
+      </c>
+      <c r="H97" s="21">
         <v>1</v>
       </c>
       <c r="I97" s="30"/>
       <c r="J97" s="27"/>
       <c r="K97" s="27"/>
-      <c r="L97" s="21" t="n">
+      <c r="L97" s="21">
         <v>1</v>
       </c>
       <c r="M97" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="98">
+    <row r="98" spans="1:13" ht="105" customHeight="1">
       <c r="B98" s="25" t="s">
         <v>301</v>
       </c>
@@ -5423,21 +5644,21 @@
       <c r="F98" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G98" s="47" t="n">
-        <v>41338.5409722222</v>
-      </c>
-      <c r="H98" s="21" t="n">
+      <c r="G98" s="47">
+        <v>41338.540972222203</v>
+      </c>
+      <c r="H98" s="21">
         <v>1</v>
       </c>
       <c r="I98" s="30"/>
       <c r="J98" s="27"/>
       <c r="K98" s="27"/>
-      <c r="L98" s="21" t="n">
+      <c r="L98" s="21">
         <v>1</v>
       </c>
       <c r="M98" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="99">
+    <row r="99" spans="1:13" ht="105" customHeight="1">
       <c r="B99" s="25" t="s">
         <v>302</v>
       </c>
@@ -5453,10 +5674,10 @@
       <c r="F99" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G99" s="47" t="n">
-        <v>41338.5409722222</v>
-      </c>
-      <c r="H99" s="21" t="n">
+      <c r="G99" s="47">
+        <v>41338.540972222203</v>
+      </c>
+      <c r="H99" s="21">
         <v>9</v>
       </c>
       <c r="I99" s="30" t="s">
@@ -5464,12 +5685,12 @@
       </c>
       <c r="J99" s="27"/>
       <c r="K99" s="27"/>
-      <c r="L99" s="21" t="n">
+      <c r="L99" s="21">
         <v>1</v>
       </c>
       <c r="M99" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="100">
+    <row r="100" spans="1:13" ht="15" customHeight="1">
       <c r="B100" s="23" t="s">
         <v>304</v>
       </c>
@@ -5478,7 +5699,7 @@
       <c r="J100" s="24"/>
       <c r="K100" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="102.75" outlineLevel="0" r="101">
+    <row r="101" spans="1:13" ht="102.75" customHeight="1">
       <c r="B101" s="25" t="s">
         <v>305</v>
       </c>
@@ -5506,7 +5727,7 @@
         <v>311</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="137.25" outlineLevel="0" r="102">
+    <row r="102" spans="1:13" ht="137.25" customHeight="1">
       <c r="B102" s="25" t="s">
         <v>312</v>
       </c>
@@ -5527,14 +5748,14 @@
       </c>
       <c r="J102" s="27"/>
       <c r="K102" s="27"/>
-      <c r="L102" s="21" t="n">
+      <c r="L102" s="21">
         <v>1</v>
       </c>
       <c r="M102" s="30" t="s">
         <v>316</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="103">
+    <row r="103" spans="1:13" ht="15" customHeight="1">
       <c r="B103" s="23" t="s">
         <v>317</v>
       </c>
@@ -5543,7 +5764,7 @@
       <c r="J103" s="24"/>
       <c r="K103" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="115.5" outlineLevel="0" r="104">
+    <row r="104" spans="1:13" ht="115.5" customHeight="1">
       <c r="B104" s="25" t="s">
         <v>318</v>
       </c>
@@ -5559,21 +5780,21 @@
       <c r="F104" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G104" s="47" t="n">
-        <v>41338.6583333333</v>
-      </c>
-      <c r="H104" s="21" t="n">
+      <c r="G104" s="47">
+        <v>41338.658333333296</v>
+      </c>
+      <c r="H104" s="21">
         <v>1</v>
       </c>
       <c r="I104" s="30"/>
       <c r="J104" s="27"/>
       <c r="K104" s="27"/>
-      <c r="L104" s="21" t="n">
+      <c r="L104" s="21">
         <v>1</v>
       </c>
       <c r="M104" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.75" outlineLevel="0" r="105">
+    <row r="105" spans="1:13" ht="99.75" customHeight="1">
       <c r="B105" s="25" t="s">
         <v>322</v>
       </c>
@@ -5589,21 +5810,21 @@
       <c r="F105" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G105" s="47" t="n">
-        <v>41338.6583333333</v>
-      </c>
-      <c r="H105" s="21" t="n">
+      <c r="G105" s="47">
+        <v>41338.658333333296</v>
+      </c>
+      <c r="H105" s="21">
         <v>1</v>
       </c>
       <c r="I105" s="30"/>
       <c r="J105" s="27"/>
       <c r="K105" s="27"/>
-      <c r="L105" s="21" t="n">
+      <c r="L105" s="21">
         <v>1</v>
       </c>
       <c r="M105" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="88.5" outlineLevel="0" r="106">
+    <row r="106" spans="1:13" ht="88.5" customHeight="1">
       <c r="B106" s="25" t="s">
         <v>326</v>
       </c>
@@ -5619,21 +5840,21 @@
       <c r="F106" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G106" s="47" t="n">
-        <v>41338.6583333333</v>
-      </c>
-      <c r="H106" s="21" t="n">
+      <c r="G106" s="47">
+        <v>41338.658333333296</v>
+      </c>
+      <c r="H106" s="21">
         <v>1</v>
       </c>
       <c r="I106" s="30"/>
       <c r="J106" s="27"/>
       <c r="K106" s="27"/>
-      <c r="L106" s="21" t="n">
+      <c r="L106" s="21">
         <v>1</v>
       </c>
       <c r="M106" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="109.5" outlineLevel="0" r="107">
+    <row r="107" spans="1:13" ht="109.5" customHeight="1">
       <c r="B107" s="25" t="s">
         <v>330</v>
       </c>
@@ -5649,21 +5870,21 @@
       <c r="F107" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G107" s="47" t="n">
-        <v>41338.6583333333</v>
-      </c>
-      <c r="H107" s="21" t="n">
+      <c r="G107" s="47">
+        <v>41338.658333333296</v>
+      </c>
+      <c r="H107" s="21">
         <v>1</v>
       </c>
       <c r="I107" s="30"/>
       <c r="J107" s="27"/>
       <c r="K107" s="27"/>
-      <c r="L107" s="21" t="n">
+      <c r="L107" s="21">
         <v>1</v>
       </c>
       <c r="M107" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="99.75" outlineLevel="0" r="108">
+    <row r="108" spans="1:13" ht="99.75" customHeight="1">
       <c r="B108" s="25" t="s">
         <v>334</v>
       </c>
@@ -5679,21 +5900,21 @@
       <c r="F108" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G108" s="47" t="n">
-        <v>41338.6583333333</v>
-      </c>
-      <c r="H108" s="21" t="n">
+      <c r="G108" s="47">
+        <v>41338.658333333296</v>
+      </c>
+      <c r="H108" s="21">
         <v>1</v>
       </c>
       <c r="I108" s="30"/>
       <c r="J108" s="27"/>
       <c r="K108" s="27"/>
-      <c r="L108" s="21" t="n">
+      <c r="L108" s="21">
         <v>1</v>
       </c>
       <c r="M108" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="109">
+    <row r="109" spans="1:13" ht="15" customHeight="1">
       <c r="B109" s="23" t="s">
         <v>338</v>
       </c>
@@ -5702,7 +5923,7 @@
       <c r="J109" s="24"/>
       <c r="K109" s="24"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="110" s="44">
+    <row r="110" spans="1:13" s="44" customFormat="1" ht="45" customHeight="1">
       <c r="A110" s="48"/>
       <c r="B110" s="49" t="s">
         <v>339</v>
@@ -5719,21 +5940,21 @@
       <c r="F110" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G110" s="51" t="n">
-        <v>41338.6194444444</v>
-      </c>
-      <c r="H110" s="52" t="n">
+      <c r="G110" s="51">
+        <v>41338.619444444397</v>
+      </c>
+      <c r="H110" s="52">
         <v>1</v>
       </c>
       <c r="I110" s="42"/>
       <c r="J110" s="40"/>
       <c r="K110" s="40"/>
-      <c r="L110" s="52" t="n">
+      <c r="L110" s="52">
         <v>1</v>
       </c>
       <c r="M110" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="111" s="44">
+    <row r="111" spans="1:13" s="44" customFormat="1" ht="45" customHeight="1">
       <c r="A111" s="48"/>
       <c r="B111" s="49" t="s">
         <v>340</v>
@@ -5750,21 +5971,21 @@
       <c r="F111" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G111" s="51" t="n">
-        <v>41338.6194444444</v>
-      </c>
-      <c r="H111" s="52" t="n">
+      <c r="G111" s="51">
+        <v>41338.619444444397</v>
+      </c>
+      <c r="H111" s="52">
         <v>1</v>
       </c>
       <c r="I111" s="42"/>
       <c r="J111" s="40"/>
       <c r="K111" s="40"/>
-      <c r="L111" s="52" t="n">
+      <c r="L111" s="52">
         <v>1</v>
       </c>
       <c r="M111" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="112" s="44">
+    <row r="112" spans="1:13" s="44" customFormat="1" ht="45" customHeight="1">
       <c r="A112" s="48"/>
       <c r="B112" s="49" t="s">
         <v>341</v>
@@ -5781,21 +6002,21 @@
       <c r="F112" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G112" s="51" t="n">
-        <v>41338.6194444444</v>
-      </c>
-      <c r="H112" s="52" t="n">
+      <c r="G112" s="51">
+        <v>41338.619444444397</v>
+      </c>
+      <c r="H112" s="52">
         <v>1</v>
       </c>
       <c r="I112" s="42"/>
       <c r="J112" s="40"/>
       <c r="K112" s="40"/>
-      <c r="L112" s="52" t="n">
+      <c r="L112" s="52">
         <v>1</v>
       </c>
       <c r="M112" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="113" s="44">
+    <row r="113" spans="1:17" s="44" customFormat="1" ht="45" customHeight="1">
       <c r="A113" s="48"/>
       <c r="B113" s="49" t="s">
         <v>342</v>
@@ -5812,21 +6033,21 @@
       <c r="F113" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G113" s="51" t="n">
-        <v>41338.6194444444</v>
-      </c>
-      <c r="H113" s="52" t="n">
+      <c r="G113" s="51">
+        <v>41338.619444444397</v>
+      </c>
+      <c r="H113" s="52">
         <v>1</v>
       </c>
       <c r="I113" s="42"/>
       <c r="J113" s="40"/>
       <c r="K113" s="40"/>
-      <c r="L113" s="52" t="n">
+      <c r="L113" s="52">
         <v>1</v>
       </c>
       <c r="M113" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="64.45" outlineLevel="0" r="114" s="44">
+    <row r="114" spans="1:17" s="44" customFormat="1" ht="64.5" customHeight="1">
       <c r="A114" s="48"/>
       <c r="B114" s="49" t="s">
         <v>343</v>
@@ -5846,12 +6067,12 @@
       <c r="I114" s="42"/>
       <c r="J114" s="40"/>
       <c r="K114" s="40"/>
-      <c r="L114" s="52" t="n">
+      <c r="L114" s="52">
         <v>1</v>
       </c>
       <c r="M114" s="42"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="115">
+    <row r="115" spans="1:17" ht="15" customHeight="1">
       <c r="B115" s="23" t="s">
         <v>344</v>
       </c>
@@ -5860,7 +6081,7 @@
       <c r="J115" s="24"/>
       <c r="K115" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="61.5" outlineLevel="0" r="116">
+    <row r="116" spans="1:17" ht="61.5" customHeight="1">
       <c r="B116" s="53" t="s">
         <v>345</v>
       </c>
@@ -5873,14 +6094,14 @@
       <c r="I116" s="30"/>
       <c r="J116" s="27"/>
       <c r="K116" s="27"/>
-      <c r="L116" s="21" t="n">
+      <c r="L116" s="21">
         <v>1</v>
       </c>
       <c r="M116" s="30" t="s">
         <v>346</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="104" outlineLevel="0" r="117" s="55">
+    <row r="117" spans="1:17" s="55" customFormat="1" ht="104" customHeight="1">
       <c r="A117" s="39"/>
       <c r="B117" s="53" t="s">
         <v>347</v>
@@ -5893,10 +6114,10 @@
       <c r="F117" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G117" s="51" t="n">
-        <v>41338.5868055556</v>
-      </c>
-      <c r="H117" s="52" t="n">
+      <c r="G117" s="51">
+        <v>41338.586805555598</v>
+      </c>
+      <c r="H117" s="52">
         <v>1</v>
       </c>
       <c r="I117" s="36" t="s">
@@ -5904,7 +6125,7 @@
       </c>
       <c r="J117" s="40"/>
       <c r="K117" s="40"/>
-      <c r="L117" s="52" t="n">
+      <c r="L117" s="52">
         <v>1</v>
       </c>
       <c r="M117" s="36" t="s">
@@ -5914,7 +6135,7 @@
       <c r="O117" s="54"/>
       <c r="P117" s="54"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="72" outlineLevel="0" r="118" s="44">
+    <row r="118" spans="1:17" s="44" customFormat="1" ht="72" customHeight="1">
       <c r="A118" s="39"/>
       <c r="B118" s="53" t="s">
         <v>350</v>
@@ -5927,10 +6148,10 @@
       <c r="F118" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G118" s="51" t="n">
-        <v>41338.6611111111</v>
-      </c>
-      <c r="H118" s="52" t="n">
+      <c r="G118" s="51">
+        <v>41338.661111111098</v>
+      </c>
+      <c r="H118" s="52">
         <v>1</v>
       </c>
       <c r="I118" s="36" t="s">
@@ -5938,14 +6159,14 @@
       </c>
       <c r="J118" s="40"/>
       <c r="K118" s="40"/>
-      <c r="L118" s="52" t="n">
+      <c r="L118" s="52">
         <v>1</v>
       </c>
       <c r="M118" s="36" t="s">
         <v>352</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="119">
+    <row r="119" spans="1:17" ht="36" customHeight="1">
       <c r="A119" s="15"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -5964,7 +6185,7 @@
       <c r="P119" s="22"/>
       <c r="Q119" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="120">
+    <row r="120" spans="1:17" ht="15.75" customHeight="1">
       <c r="B120" s="23" t="s">
         <v>353</v>
       </c>
@@ -5973,14 +6194,14 @@
       <c r="J120" s="46"/>
       <c r="K120" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="121">
+    <row r="121" spans="1:17" ht="15.75" customHeight="1">
       <c r="B121" s="23"/>
       <c r="F121" s="46"/>
       <c r="G121" s="46"/>
       <c r="J121" s="46"/>
       <c r="K121" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="122">
+    <row r="122" spans="1:17" ht="15" customHeight="1">
       <c r="B122" s="23" t="s">
         <v>354</v>
       </c>
@@ -5989,7 +6210,7 @@
       <c r="J122" s="46"/>
       <c r="K122" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="73.5" outlineLevel="0" r="123">
+    <row r="123" spans="1:17" ht="73.5" customHeight="1">
       <c r="B123" s="25" t="s">
         <v>355</v>
       </c>
@@ -6005,27 +6226,27 @@
       <c r="F123" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G123" s="47" t="n">
-        <v>41338.5916666667</v>
-      </c>
-      <c r="H123" s="21" t="n">
+      <c r="G123" s="47">
+        <v>41338.591666666704</v>
+      </c>
+      <c r="H123" s="21">
         <v>1</v>
       </c>
       <c r="I123" s="30"/>
       <c r="J123" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K123" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="L123" s="21" t="n">
+      <c r="K123" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="L123" s="21">
         <v>1</v>
       </c>
       <c r="M123" s="30" t="s">
         <v>264</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="72" outlineLevel="0" r="124">
+    <row r="124" spans="1:17" ht="72" customHeight="1">
       <c r="B124" s="25" t="s">
         <v>358</v>
       </c>
@@ -6041,27 +6262,27 @@
       <c r="F124" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G124" s="47" t="n">
-        <v>41338.5916666667</v>
-      </c>
-      <c r="H124" s="21" t="n">
+      <c r="G124" s="47">
+        <v>41338.591666666704</v>
+      </c>
+      <c r="H124" s="21">
         <v>1</v>
       </c>
       <c r="I124" s="30"/>
       <c r="J124" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K124" s="47" t="n">
-        <v>41338.5347222222</v>
-      </c>
-      <c r="L124" s="21" t="n">
+      <c r="K124" s="47">
+        <v>41338.534722222197</v>
+      </c>
+      <c r="L124" s="21">
         <v>1</v>
       </c>
       <c r="M124" s="30" t="s">
         <v>268</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="125">
+    <row r="125" spans="1:17" ht="15" customHeight="1">
       <c r="B125" s="23" t="s">
         <v>359</v>
       </c>
@@ -6070,7 +6291,7 @@
       <c r="J125" s="46"/>
       <c r="K125" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="126">
+    <row r="126" spans="1:17" ht="15" customHeight="1">
       <c r="B126" s="23" t="s">
         <v>269</v>
       </c>
@@ -6079,7 +6300,7 @@
       <c r="J126" s="46"/>
       <c r="K126" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="127">
+    <row r="127" spans="1:17" ht="105" customHeight="1">
       <c r="B127" s="25" t="s">
         <v>360</v>
       </c>
@@ -6091,21 +6312,21 @@
       <c r="F127" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G127" s="47" t="n">
-        <v>41338.5916666667</v>
-      </c>
-      <c r="H127" s="21" t="n">
+      <c r="G127" s="47">
+        <v>41338.591666666704</v>
+      </c>
+      <c r="H127" s="21">
         <v>1</v>
       </c>
       <c r="I127" s="30"/>
       <c r="J127" s="27"/>
       <c r="K127" s="27"/>
-      <c r="L127" s="21" t="n">
+      <c r="L127" s="21">
         <v>1</v>
       </c>
       <c r="M127" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="128">
+    <row r="128" spans="1:17" ht="15" customHeight="1">
       <c r="B128" s="23" t="s">
         <v>98</v>
       </c>
@@ -6114,7 +6335,7 @@
       <c r="J128" s="46"/>
       <c r="K128" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="129">
+    <row r="129" spans="2:13" ht="15" customHeight="1">
       <c r="B129" s="23" t="s">
         <v>317</v>
       </c>
@@ -6123,7 +6344,7 @@
       <c r="J129" s="46"/>
       <c r="K129" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="130">
+    <row r="130" spans="2:13" ht="15" customHeight="1">
       <c r="B130" s="23" t="s">
         <v>338</v>
       </c>
@@ -6132,7 +6353,7 @@
       <c r="J130" s="46"/>
       <c r="K130" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="131">
+    <row r="131" spans="2:13" ht="15" customHeight="1">
       <c r="B131" s="23" t="s">
         <v>344</v>
       </c>
@@ -6141,7 +6362,7 @@
       <c r="J131" s="46"/>
       <c r="K131" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="132">
+    <row r="132" spans="2:13" ht="15" customHeight="1">
       <c r="B132" s="23" t="s">
         <v>194</v>
       </c>
@@ -6150,7 +6371,7 @@
       <c r="J132" s="46"/>
       <c r="K132" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="133">
+    <row r="133" spans="2:13" ht="105" customHeight="1">
       <c r="B133" s="25" t="s">
         <v>362</v>
       </c>
@@ -6176,7 +6397,7 @@
         <v>364</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="134">
+    <row r="134" spans="2:13" ht="105" customHeight="1">
       <c r="B134" s="25" t="s">
         <v>365</v>
       </c>
@@ -6202,7 +6423,7 @@
         <v>364</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="135">
+    <row r="135" spans="2:13" ht="105" customHeight="1">
       <c r="B135" s="25" t="s">
         <v>366</v>
       </c>
@@ -6218,21 +6439,21 @@
       <c r="F135" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G135" s="47" t="n">
-        <v>41338.5916666667</v>
-      </c>
-      <c r="H135" s="21" t="n">
+      <c r="G135" s="47">
+        <v>41338.591666666704</v>
+      </c>
+      <c r="H135" s="21">
         <v>1</v>
       </c>
       <c r="I135" s="30"/>
       <c r="J135" s="27"/>
       <c r="K135" s="27"/>
-      <c r="L135" s="21" t="n">
+      <c r="L135" s="21">
         <v>1</v>
       </c>
       <c r="M135" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="136">
+    <row r="136" spans="2:13" ht="105" customHeight="1">
       <c r="B136" s="25" t="s">
         <v>367</v>
       </c>
@@ -6248,21 +6469,21 @@
       <c r="F136" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G136" s="47" t="n">
-        <v>41338.5916666667</v>
-      </c>
-      <c r="H136" s="21" t="n">
+      <c r="G136" s="47">
+        <v>41338.591666666704</v>
+      </c>
+      <c r="H136" s="21">
         <v>1</v>
       </c>
       <c r="I136" s="30"/>
       <c r="J136" s="27"/>
       <c r="K136" s="27"/>
-      <c r="L136" s="21" t="n">
+      <c r="L136" s="21">
         <v>1</v>
       </c>
       <c r="M136" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="137">
+    <row r="137" spans="2:13" ht="105" customHeight="1">
       <c r="B137" s="25" t="s">
         <v>368</v>
       </c>
@@ -6278,21 +6499,21 @@
       <c r="F137" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G137" s="47" t="n">
-        <v>41338.5916666667</v>
-      </c>
-      <c r="H137" s="21" t="n">
+      <c r="G137" s="47">
+        <v>41338.591666666704</v>
+      </c>
+      <c r="H137" s="21">
         <v>1</v>
       </c>
       <c r="I137" s="30"/>
       <c r="J137" s="27"/>
       <c r="K137" s="27"/>
-      <c r="L137" s="21" t="n">
+      <c r="L137" s="21">
         <v>1</v>
       </c>
       <c r="M137" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="138">
+    <row r="138" spans="2:13" ht="105" customHeight="1">
       <c r="B138" s="25" t="s">
         <v>369</v>
       </c>
@@ -6308,21 +6529,21 @@
       <c r="F138" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G138" s="47" t="n">
-        <v>41338.5916666667</v>
-      </c>
-      <c r="H138" s="21" t="n">
+      <c r="G138" s="47">
+        <v>41338.591666666704</v>
+      </c>
+      <c r="H138" s="21">
         <v>1</v>
       </c>
       <c r="I138" s="30"/>
       <c r="J138" s="27"/>
       <c r="K138" s="27"/>
-      <c r="L138" s="21" t="n">
+      <c r="L138" s="21">
         <v>1</v>
       </c>
       <c r="M138" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="139">
+    <row r="139" spans="2:13" ht="105" customHeight="1">
       <c r="B139" s="25" t="s">
         <v>370</v>
       </c>
@@ -6338,21 +6559,21 @@
       <c r="F139" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G139" s="47" t="n">
-        <v>41338.5916666667</v>
-      </c>
-      <c r="H139" s="21" t="n">
+      <c r="G139" s="47">
+        <v>41338.591666666704</v>
+      </c>
+      <c r="H139" s="21">
         <v>1</v>
       </c>
       <c r="I139" s="30"/>
       <c r="J139" s="27"/>
       <c r="K139" s="27"/>
-      <c r="L139" s="21" t="n">
+      <c r="L139" s="21">
         <v>1</v>
       </c>
       <c r="M139" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="140">
+    <row r="140" spans="2:13" ht="105" customHeight="1">
       <c r="B140" s="25" t="s">
         <v>371</v>
       </c>
@@ -6368,10 +6589,10 @@
       <c r="F140" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G140" s="47" t="n">
-        <v>41338.5916666667</v>
-      </c>
-      <c r="H140" s="21" t="n">
+      <c r="G140" s="47">
+        <v>41338.591666666704</v>
+      </c>
+      <c r="H140" s="21">
         <v>1</v>
       </c>
       <c r="I140" s="30" t="s">
@@ -6379,12 +6600,12 @@
       </c>
       <c r="J140" s="27"/>
       <c r="K140" s="27"/>
-      <c r="L140" s="21" t="n">
+      <c r="L140" s="21">
         <v>1</v>
       </c>
       <c r="M140" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="141">
+    <row r="141" spans="2:13" ht="105" customHeight="1">
       <c r="B141" s="25" t="s">
         <v>373</v>
       </c>
@@ -6400,21 +6621,21 @@
       <c r="F141" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G141" s="47" t="n">
+      <c r="G141" s="47">
         <v>41338.6</v>
       </c>
-      <c r="H141" s="21" t="n">
+      <c r="H141" s="21">
         <v>1</v>
       </c>
       <c r="I141" s="30"/>
       <c r="J141" s="27"/>
       <c r="K141" s="27"/>
-      <c r="L141" s="21" t="n">
+      <c r="L141" s="21">
         <v>1</v>
       </c>
       <c r="M141" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="142">
+    <row r="142" spans="2:13" ht="105" customHeight="1">
       <c r="B142" s="25" t="s">
         <v>374</v>
       </c>
@@ -6430,21 +6651,21 @@
       <c r="F142" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G142" s="47" t="n">
+      <c r="G142" s="47">
         <v>41338.6</v>
       </c>
-      <c r="H142" s="21" t="n">
+      <c r="H142" s="21">
         <v>1</v>
       </c>
       <c r="I142" s="30"/>
       <c r="J142" s="27"/>
       <c r="K142" s="27"/>
-      <c r="L142" s="21" t="n">
+      <c r="L142" s="21">
         <v>1</v>
       </c>
       <c r="M142" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="143">
+    <row r="143" spans="2:13" ht="105" customHeight="1">
       <c r="B143" s="25" t="s">
         <v>375</v>
       </c>
@@ -6460,10 +6681,10 @@
       <c r="F143" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G143" s="47" t="n">
+      <c r="G143" s="47">
         <v>41338.6</v>
       </c>
-      <c r="H143" s="21" t="n">
+      <c r="H143" s="21">
         <v>1</v>
       </c>
       <c r="I143" s="56" t="s">
@@ -6473,12 +6694,12 @@
         <v>376</v>
       </c>
       <c r="K143" s="27"/>
-      <c r="L143" s="21" t="n">
+      <c r="L143" s="21">
         <v>1</v>
       </c>
       <c r="M143" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="144">
+    <row r="144" spans="2:13" ht="105" customHeight="1">
       <c r="B144" s="25" t="s">
         <v>377</v>
       </c>
@@ -6494,21 +6715,21 @@
       <c r="F144" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G144" s="47" t="n">
+      <c r="G144" s="47">
         <v>41338.6</v>
       </c>
-      <c r="H144" s="21" t="n">
+      <c r="H144" s="21">
         <v>1</v>
       </c>
       <c r="I144" s="30"/>
       <c r="J144" s="27"/>
       <c r="K144" s="27"/>
-      <c r="L144" s="21" t="n">
+      <c r="L144" s="21">
         <v>1</v>
       </c>
       <c r="M144" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="145">
+    <row r="145" spans="1:13" ht="105" customHeight="1">
       <c r="B145" s="25" t="s">
         <v>378</v>
       </c>
@@ -6524,20 +6745,20 @@
       <c r="F145" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G145" s="47" t="n">
+      <c r="G145" s="47">
         <v>41338.6</v>
       </c>
-      <c r="H145" s="21" t="n">
+      <c r="H145" s="21">
         <v>1</v>
       </c>
       <c r="J145" s="27"/>
       <c r="K145" s="27"/>
-      <c r="L145" s="21" t="n">
+      <c r="L145" s="21">
         <v>1</v>
       </c>
       <c r="M145" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="146">
+    <row r="146" spans="1:13" ht="105" customHeight="1">
       <c r="B146" s="25" t="s">
         <v>379</v>
       </c>
@@ -6553,10 +6774,10 @@
       <c r="F146" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G146" s="47" t="n">
+      <c r="G146" s="47">
         <v>41338.6</v>
       </c>
-      <c r="H146" s="21" t="n">
+      <c r="H146" s="21">
         <v>1</v>
       </c>
       <c r="I146" s="56" t="s">
@@ -6564,12 +6785,12 @@
       </c>
       <c r="J146" s="27"/>
       <c r="K146" s="27"/>
-      <c r="L146" s="21" t="n">
+      <c r="L146" s="21">
         <v>1</v>
       </c>
       <c r="M146" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="147">
+    <row r="147" spans="1:13" ht="105" customHeight="1">
       <c r="B147" s="25" t="s">
         <v>381</v>
       </c>
@@ -6585,21 +6806,21 @@
       <c r="F147" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G147" s="47" t="n">
+      <c r="G147" s="47">
         <v>41338.6</v>
       </c>
-      <c r="H147" s="21" t="n">
+      <c r="H147" s="21">
         <v>1</v>
       </c>
       <c r="I147" s="30"/>
       <c r="J147" s="27"/>
       <c r="K147" s="27"/>
-      <c r="L147" s="21" t="n">
+      <c r="L147" s="21">
         <v>1</v>
       </c>
       <c r="M147" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="148">
+    <row r="148" spans="1:13" ht="105" customHeight="1">
       <c r="B148" s="25" t="s">
         <v>382</v>
       </c>
@@ -6615,20 +6836,20 @@
       <c r="F148" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G148" s="47" t="n">
+      <c r="G148" s="47">
         <v>41338.6</v>
       </c>
-      <c r="H148" s="21" t="n">
+      <c r="H148" s="21">
         <v>1</v>
       </c>
       <c r="J148" s="27"/>
       <c r="K148" s="27"/>
-      <c r="L148" s="21" t="n">
+      <c r="L148" s="21">
         <v>1</v>
       </c>
       <c r="M148" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="149">
+    <row r="149" spans="1:13" ht="105" customHeight="1">
       <c r="B149" s="25" t="s">
         <v>383</v>
       </c>
@@ -6644,10 +6865,10 @@
       <c r="F149" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G149" s="47" t="n">
+      <c r="G149" s="47">
         <v>41338.6</v>
       </c>
-      <c r="H149" s="21" t="n">
+      <c r="H149" s="21">
         <v>1</v>
       </c>
       <c r="I149" s="30" t="s">
@@ -6655,12 +6876,12 @@
       </c>
       <c r="J149" s="27"/>
       <c r="K149" s="27"/>
-      <c r="L149" s="21" t="n">
+      <c r="L149" s="21">
         <v>1</v>
       </c>
       <c r="M149" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="150">
+    <row r="150" spans="1:13" ht="105" customHeight="1">
       <c r="B150" s="25" t="s">
         <v>385</v>
       </c>
@@ -6676,21 +6897,21 @@
       <c r="F150" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G150" s="47" t="n">
+      <c r="G150" s="47">
         <v>41338.6</v>
       </c>
-      <c r="H150" s="21" t="n">
+      <c r="H150" s="21">
         <v>1</v>
       </c>
       <c r="I150" s="30"/>
       <c r="J150" s="27"/>
       <c r="K150" s="27"/>
-      <c r="L150" s="21" t="n">
+      <c r="L150" s="21">
         <v>1</v>
       </c>
       <c r="M150" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="105" outlineLevel="0" r="151">
+    <row r="151" spans="1:13" ht="105" customHeight="1">
       <c r="B151" s="25" t="s">
         <v>386</v>
       </c>
@@ -6706,21 +6927,21 @@
       <c r="F151" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G151" s="47" t="n">
-        <v>41338.6041666667</v>
-      </c>
-      <c r="H151" s="21" t="n">
+      <c r="G151" s="47">
+        <v>41338.604166666701</v>
+      </c>
+      <c r="H151" s="21">
         <v>1</v>
       </c>
       <c r="I151" s="30"/>
       <c r="J151" s="27"/>
       <c r="K151" s="27"/>
-      <c r="L151" s="21" t="n">
+      <c r="L151" s="21">
         <v>1</v>
       </c>
       <c r="M151" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="69.75" outlineLevel="0" r="152">
+    <row r="152" spans="1:13" ht="69.75" customHeight="1">
       <c r="B152" s="25" t="s">
         <v>387</v>
       </c>
@@ -6733,13 +6954,13 @@
       <c r="I152" s="30"/>
       <c r="J152" s="27"/>
       <c r="K152" s="27"/>
-      <c r="L152" s="21" t="n">
+      <c r="L152" s="21">
         <v>1</v>
       </c>
       <c r="M152" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="153">
-      <c r="B153" s="2" t="s">
+    <row r="153" spans="1:13" ht="45" customHeight="1">
+      <c r="B153" s="3" t="s">
         <v>389</v>
       </c>
       <c r="F153" s="27"/>
@@ -6755,7 +6976,7 @@
       </c>
       <c r="M153" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75" outlineLevel="0" r="154">
+    <row r="154" spans="1:13" ht="75" customHeight="1">
       <c r="B154" s="57" t="s">
         <v>391</v>
       </c>
@@ -6779,7 +7000,7 @@
       </c>
       <c r="M154" s="30"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="155" s="44">
+    <row r="155" spans="1:13" s="44" customFormat="1" ht="49.5" customHeight="1">
       <c r="A155" s="48"/>
       <c r="B155" s="57" t="s">
         <v>392</v>
@@ -6799,14 +7020,14 @@
       <c r="I155" s="42"/>
       <c r="J155" s="40"/>
       <c r="K155" s="40"/>
-      <c r="L155" s="52" t="n">
+      <c r="L155" s="52">
         <v>1</v>
       </c>
       <c r="M155" s="42" t="s">
         <v>393</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="64.5" outlineLevel="0" r="156" s="44">
+    <row r="156" spans="1:13" s="44" customFormat="1" ht="64.5" customHeight="1">
       <c r="A156" s="48"/>
       <c r="B156" s="57" t="s">
         <v>394</v>
@@ -6828,12 +7049,12 @@
       </c>
       <c r="J156" s="40"/>
       <c r="K156" s="40"/>
-      <c r="L156" s="52" t="n">
+      <c r="L156" s="52">
         <v>1</v>
       </c>
       <c r="M156" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="157" s="44">
+    <row r="157" spans="1:13" s="44" customFormat="1" ht="60" customHeight="1">
       <c r="A157" s="48"/>
       <c r="B157" s="57" t="s">
         <v>396</v>
@@ -6853,12 +7074,12 @@
       <c r="I157" s="42"/>
       <c r="J157" s="40"/>
       <c r="K157" s="40"/>
-      <c r="L157" s="52" t="n">
+      <c r="L157" s="52">
         <v>1</v>
       </c>
       <c r="M157" s="42"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="158">
+    <row r="158" spans="1:13" ht="15" customHeight="1">
       <c r="B158" s="23" t="s">
         <v>317</v>
       </c>
@@ -6871,7 +7092,7 @@
       <c r="L158" s="21"/>
       <c r="M158" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="86.25" outlineLevel="0" r="159">
+    <row r="159" spans="1:13" ht="86.25" customHeight="1">
       <c r="B159" s="53" t="s">
         <v>397</v>
       </c>
@@ -6899,7 +7120,7 @@
         <v>349</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="84" outlineLevel="0" r="160">
+    <row r="160" spans="1:13" ht="84" customHeight="1">
       <c r="B160" s="53" t="s">
         <v>401</v>
       </c>
@@ -6927,7 +7148,7 @@
         <v>349</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="69.75" outlineLevel="0" r="161">
+    <row r="161" spans="1:17" ht="69.75" customHeight="1">
       <c r="B161" s="53" t="s">
         <v>405</v>
       </c>
@@ -6955,7 +7176,7 @@
         <v>349</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="86.25" outlineLevel="0" r="162">
+    <row r="162" spans="1:17" ht="86.25" customHeight="1">
       <c r="B162" s="53" t="s">
         <v>409</v>
       </c>
@@ -6983,7 +7204,7 @@
         <v>349</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="79.5" outlineLevel="0" r="163">
+    <row r="163" spans="1:17" ht="79.5" customHeight="1">
       <c r="B163" s="53" t="s">
         <v>413</v>
       </c>
@@ -7011,7 +7232,7 @@
         <v>349</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="164">
+    <row r="164" spans="1:17" ht="15" customHeight="1">
       <c r="B164" s="23" t="s">
         <v>344</v>
       </c>
@@ -7024,7 +7245,7 @@
       <c r="L164" s="21"/>
       <c r="M164" s="30"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="78.75" outlineLevel="0" r="165" s="44">
+    <row r="165" spans="1:17" s="44" customFormat="1" ht="78.75" customHeight="1">
       <c r="A165" s="39"/>
       <c r="B165" s="53" t="s">
         <v>417</v>
@@ -7049,7 +7270,7 @@
         <v>349</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="166">
+    <row r="166" spans="1:17" ht="36" customHeight="1">
       <c r="A166" s="15"/>
       <c r="B166" s="16"/>
       <c r="C166" s="16"/>
@@ -7068,7 +7289,7 @@
       <c r="P166" s="22"/>
       <c r="Q166" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="167">
+    <row r="167" spans="1:17" ht="15.75" customHeight="1">
       <c r="B167" s="23" t="s">
         <v>418</v>
       </c>
@@ -7077,7 +7298,7 @@
       <c r="J167" s="46"/>
       <c r="K167" s="46"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="168" s="58">
+    <row r="168" spans="1:17" s="58" customFormat="1" ht="60" customHeight="1">
       <c r="A168" s="39"/>
       <c r="B168" s="53" t="s">
         <v>419</v>
@@ -7102,7 +7323,7 @@
         <v>349</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="169" s="58">
+    <row r="169" spans="1:17" s="58" customFormat="1" ht="60" customHeight="1">
       <c r="A169" s="39"/>
       <c r="B169" s="53" t="s">
         <v>420</v>
@@ -7127,7 +7348,7 @@
         <v>349</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="170">
+    <row r="170" spans="1:17" ht="90" customHeight="1">
       <c r="B170" s="26" t="s">
         <v>421</v>
       </c>
@@ -7143,10 +7364,10 @@
       <c r="F170" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G170" s="47" t="n">
-        <v>41338.6131944444</v>
-      </c>
-      <c r="H170" s="21" t="n">
+      <c r="G170" s="47">
+        <v>41338.613194444399</v>
+      </c>
+      <c r="H170" s="21">
         <v>1</v>
       </c>
       <c r="I170" s="30" t="s">
@@ -7154,12 +7375,12 @@
       </c>
       <c r="J170" s="27"/>
       <c r="K170" s="27"/>
-      <c r="L170" s="21" t="n">
+      <c r="L170" s="21">
         <v>1</v>
       </c>
       <c r="M170" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="171">
+    <row r="171" spans="1:17" ht="90" customHeight="1">
       <c r="B171" s="26" t="s">
         <v>424</v>
       </c>
@@ -7187,7 +7408,7 @@
         <v>425</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="172">
+    <row r="172" spans="1:17" ht="90" customHeight="1">
       <c r="B172" s="26" t="s">
         <v>426</v>
       </c>
@@ -7203,10 +7424,10 @@
       <c r="F172" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G172" s="47" t="n">
+      <c r="G172" s="47">
         <v>41338.6</v>
       </c>
-      <c r="H172" s="21" t="n">
+      <c r="H172" s="21">
         <v>1</v>
       </c>
       <c r="I172" s="30" t="s">
@@ -7214,12 +7435,12 @@
       </c>
       <c r="J172" s="27"/>
       <c r="K172" s="27"/>
-      <c r="L172" s="21" t="n">
+      <c r="L172" s="21">
         <v>1</v>
       </c>
       <c r="M172" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="173">
+    <row r="173" spans="1:17" ht="90" customHeight="1">
       <c r="B173" s="26" t="s">
         <v>428</v>
       </c>
@@ -7235,21 +7456,21 @@
       <c r="F173" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G173" s="47" t="n">
-        <v>41338.6138888889</v>
-      </c>
-      <c r="H173" s="21" t="n">
+      <c r="G173" s="47">
+        <v>41338.613888888904</v>
+      </c>
+      <c r="H173" s="21">
         <v>1</v>
       </c>
       <c r="I173" s="30"/>
       <c r="J173" s="27"/>
       <c r="K173" s="27"/>
-      <c r="L173" s="21" t="n">
+      <c r="L173" s="21">
         <v>1</v>
       </c>
       <c r="M173" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="174">
+    <row r="174" spans="1:17" ht="90" customHeight="1">
       <c r="B174" s="26" t="s">
         <v>429</v>
       </c>
@@ -7265,21 +7486,21 @@
       <c r="F174" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G174" s="47" t="n">
-        <v>41338.6138888889</v>
-      </c>
-      <c r="H174" s="21" t="n">
+      <c r="G174" s="47">
+        <v>41338.613888888904</v>
+      </c>
+      <c r="H174" s="21">
         <v>1</v>
       </c>
       <c r="I174" s="30"/>
       <c r="J174" s="27"/>
       <c r="K174" s="27"/>
-      <c r="L174" s="21" t="n">
+      <c r="L174" s="21">
         <v>1</v>
       </c>
       <c r="M174" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="175">
+    <row r="175" spans="1:17" ht="90" customHeight="1">
       <c r="B175" s="26" t="s">
         <v>430</v>
       </c>
@@ -7295,21 +7516,21 @@
       <c r="F175" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G175" s="47" t="n">
-        <v>41338.6138888889</v>
-      </c>
-      <c r="H175" s="21" t="n">
+      <c r="G175" s="47">
+        <v>41338.613888888904</v>
+      </c>
+      <c r="H175" s="21">
         <v>1</v>
       </c>
       <c r="I175" s="30"/>
       <c r="J175" s="27"/>
       <c r="K175" s="27"/>
-      <c r="L175" s="21" t="n">
+      <c r="L175" s="21">
         <v>1</v>
       </c>
       <c r="M175" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="176">
+    <row r="176" spans="1:17" ht="90" customHeight="1">
       <c r="B176" s="26" t="s">
         <v>431</v>
       </c>
@@ -7325,21 +7546,21 @@
       <c r="F176" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G176" s="47" t="n">
-        <v>41338.6138888889</v>
-      </c>
-      <c r="H176" s="21" t="n">
+      <c r="G176" s="47">
+        <v>41338.613888888904</v>
+      </c>
+      <c r="H176" s="21">
         <v>1</v>
       </c>
       <c r="I176" s="30"/>
       <c r="J176" s="27"/>
       <c r="K176" s="27"/>
-      <c r="L176" s="21" t="n">
+      <c r="L176" s="21">
         <v>1</v>
       </c>
       <c r="M176" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="177">
+    <row r="177" spans="1:14" ht="90" customHeight="1">
       <c r="B177" s="26" t="s">
         <v>432</v>
       </c>
@@ -7355,21 +7576,21 @@
       <c r="F177" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G177" s="47" t="n">
-        <v>41338.6138888889</v>
-      </c>
-      <c r="H177" s="21" t="n">
+      <c r="G177" s="47">
+        <v>41338.613888888904</v>
+      </c>
+      <c r="H177" s="21">
         <v>1</v>
       </c>
       <c r="I177" s="30"/>
       <c r="J177" s="27"/>
       <c r="K177" s="27"/>
-      <c r="L177" s="21" t="n">
+      <c r="L177" s="21">
         <v>1</v>
       </c>
       <c r="M177" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="178">
+    <row r="178" spans="1:14" ht="90" customHeight="1">
       <c r="B178" s="26" t="s">
         <v>433</v>
       </c>
@@ -7385,21 +7606,21 @@
       <c r="F178" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G178" s="47" t="n">
-        <v>41338.6138888889</v>
-      </c>
-      <c r="H178" s="21" t="n">
+      <c r="G178" s="47">
+        <v>41338.613888888904</v>
+      </c>
+      <c r="H178" s="21">
         <v>1</v>
       </c>
       <c r="I178" s="30"/>
       <c r="J178" s="27"/>
       <c r="K178" s="27"/>
-      <c r="L178" s="21" t="n">
+      <c r="L178" s="21">
         <v>1</v>
       </c>
       <c r="M178" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="179">
+    <row r="179" spans="1:14" ht="90" customHeight="1">
       <c r="B179" s="26" t="s">
         <v>434</v>
       </c>
@@ -7415,21 +7636,21 @@
       <c r="F179" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G179" s="47" t="n">
-        <v>41338.6138888889</v>
-      </c>
-      <c r="H179" s="21" t="n">
+      <c r="G179" s="47">
+        <v>41338.613888888904</v>
+      </c>
+      <c r="H179" s="21">
         <v>1</v>
       </c>
       <c r="I179" s="30"/>
       <c r="J179" s="27"/>
       <c r="K179" s="27"/>
-      <c r="L179" s="21" t="n">
+      <c r="L179" s="21">
         <v>1</v>
       </c>
       <c r="M179" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="180">
+    <row r="180" spans="1:14" ht="90" customHeight="1">
       <c r="B180" s="26" t="s">
         <v>435</v>
       </c>
@@ -7445,21 +7666,21 @@
       <c r="F180" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G180" s="47" t="n">
-        <v>41338.6138888889</v>
-      </c>
-      <c r="H180" s="21" t="n">
+      <c r="G180" s="47">
+        <v>41338.613888888904</v>
+      </c>
+      <c r="H180" s="21">
         <v>1</v>
       </c>
       <c r="I180" s="30"/>
       <c r="J180" s="27"/>
       <c r="K180" s="27"/>
-      <c r="L180" s="21" t="n">
+      <c r="L180" s="21">
         <v>1</v>
       </c>
       <c r="M180" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="181">
+    <row r="181" spans="1:14" ht="90" customHeight="1">
       <c r="B181" s="26" t="s">
         <v>436</v>
       </c>
@@ -7475,10 +7696,10 @@
       <c r="F181" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G181" s="47" t="n">
-        <v>41338.6138888889</v>
-      </c>
-      <c r="H181" s="21" t="n">
+      <c r="G181" s="47">
+        <v>41338.613888888904</v>
+      </c>
+      <c r="H181" s="21">
         <v>1</v>
       </c>
       <c r="I181" s="30" t="s">
@@ -7486,12 +7707,12 @@
       </c>
       <c r="J181" s="27"/>
       <c r="K181" s="27"/>
-      <c r="L181" s="21" t="n">
+      <c r="L181" s="21">
         <v>1</v>
       </c>
       <c r="M181" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="182">
+    <row r="182" spans="1:14" ht="90" customHeight="1">
       <c r="B182" s="26" t="s">
         <v>438</v>
       </c>
@@ -7507,10 +7728,10 @@
       <c r="F182" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G182" s="47" t="n">
-        <v>41338.6138888889</v>
-      </c>
-      <c r="H182" s="21" t="n">
+      <c r="G182" s="47">
+        <v>41338.613888888904</v>
+      </c>
+      <c r="H182" s="21">
         <v>1</v>
       </c>
       <c r="I182" s="30" t="s">
@@ -7518,12 +7739,12 @@
       </c>
       <c r="J182" s="27"/>
       <c r="K182" s="27"/>
-      <c r="L182" s="21" t="n">
+      <c r="L182" s="21">
         <v>1</v>
       </c>
       <c r="M182" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="183">
+    <row r="183" spans="1:14" ht="90" customHeight="1">
       <c r="B183" s="26" t="s">
         <v>440</v>
       </c>
@@ -7539,10 +7760,10 @@
       <c r="F183" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G183" s="47" t="n">
-        <v>41338.6138888889</v>
-      </c>
-      <c r="H183" s="21" t="n">
+      <c r="G183" s="47">
+        <v>41338.613888888904</v>
+      </c>
+      <c r="H183" s="21">
         <v>1</v>
       </c>
       <c r="I183" s="30" t="s">
@@ -7550,12 +7771,12 @@
       </c>
       <c r="J183" s="27"/>
       <c r="K183" s="27"/>
-      <c r="L183" s="21" t="n">
+      <c r="L183" s="21">
         <v>1</v>
       </c>
       <c r="M183" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="184">
+    <row r="184" spans="1:14" ht="90" customHeight="1">
       <c r="B184" s="25" t="s">
         <v>442</v>
       </c>
@@ -7574,62 +7795,62 @@
       </c>
       <c r="J184" s="27"/>
       <c r="K184" s="27"/>
-      <c r="L184" s="21" t="n">
+      <c r="L184" s="21">
         <v>1</v>
       </c>
       <c r="M184" s="30" t="s">
         <v>444</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="185">
-      <c r="B185" s="2" t="s">
+    <row r="185" spans="1:14" ht="30" customHeight="1">
+      <c r="B185" s="3" t="s">
         <v>445</v>
       </c>
       <c r="C185" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D185" s="4" t="s">
         <v>388</v>
       </c>
       <c r="F185" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G185" s="47" t="n">
-        <v>41338.6194444444</v>
-      </c>
-      <c r="H185" s="21" t="n">
+      <c r="G185" s="47">
+        <v>41338.619444444397</v>
+      </c>
+      <c r="H185" s="21">
         <v>1</v>
       </c>
       <c r="I185" s="30"/>
       <c r="J185" s="27"/>
       <c r="K185" s="27"/>
-      <c r="L185" s="21" t="n">
+      <c r="L185" s="21">
         <v>1</v>
       </c>
       <c r="M185" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="186">
-      <c r="B186" s="2" t="s">
+    <row r="186" spans="1:14" ht="45" customHeight="1">
+      <c r="B186" s="3" t="s">
         <v>446</v>
       </c>
       <c r="F186" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G186" s="47" t="n">
-        <v>41338.6194444444</v>
-      </c>
-      <c r="H186" s="21" t="n">
+      <c r="G186" s="47">
+        <v>41338.619444444397</v>
+      </c>
+      <c r="H186" s="21">
         <v>1</v>
       </c>
       <c r="I186" s="30"/>
       <c r="J186" s="27"/>
       <c r="K186" s="27"/>
-      <c r="L186" s="21" t="n">
+      <c r="L186" s="21">
         <v>1</v>
       </c>
       <c r="M186" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53.25" outlineLevel="0" r="187">
+    <row r="187" spans="1:14" ht="53.25" customHeight="1">
       <c r="B187" s="57" t="s">
         <v>447</v>
       </c>
@@ -7645,21 +7866,21 @@
       <c r="F187" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G187" s="47" t="n">
-        <v>41338.6194444444</v>
-      </c>
-      <c r="H187" s="21" t="n">
+      <c r="G187" s="47">
+        <v>41338.619444444397</v>
+      </c>
+      <c r="H187" s="21">
         <v>1</v>
       </c>
       <c r="I187" s="30"/>
       <c r="J187" s="27"/>
       <c r="K187" s="27"/>
-      <c r="L187" s="21" t="n">
+      <c r="L187" s="21">
         <v>1</v>
       </c>
       <c r="M187" s="30"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="59.25" outlineLevel="0" r="188" s="44">
+    <row r="188" spans="1:14" s="44" customFormat="1" ht="59.25" customHeight="1">
       <c r="A188" s="48"/>
       <c r="B188" s="57" t="s">
         <v>448</v>
@@ -7676,21 +7897,21 @@
       <c r="F188" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G188" s="51" t="n">
-        <v>41338.6194444444</v>
-      </c>
-      <c r="H188" s="52" t="n">
+      <c r="G188" s="51">
+        <v>41338.619444444397</v>
+      </c>
+      <c r="H188" s="52">
         <v>1</v>
       </c>
       <c r="I188" s="42"/>
       <c r="J188" s="40"/>
       <c r="K188" s="40"/>
-      <c r="L188" s="52" t="n">
+      <c r="L188" s="52">
         <v>1</v>
       </c>
       <c r="M188" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="58.5" outlineLevel="0" r="189" s="44">
+    <row r="189" spans="1:14" s="44" customFormat="1" ht="58.5" customHeight="1">
       <c r="A189" s="48"/>
       <c r="B189" s="57" t="s">
         <v>449</v>
@@ -7707,10 +7928,10 @@
       <c r="F189" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G189" s="51" t="n">
-        <v>41338.6194444444</v>
-      </c>
-      <c r="H189" s="52" t="n">
+      <c r="G189" s="51">
+        <v>41338.619444444397</v>
+      </c>
+      <c r="H189" s="52">
         <v>9</v>
       </c>
       <c r="I189" s="42" t="s">
@@ -7718,12 +7939,12 @@
       </c>
       <c r="J189" s="40"/>
       <c r="K189" s="40"/>
-      <c r="L189" s="52" t="n">
+      <c r="L189" s="52">
         <v>1</v>
       </c>
       <c r="M189" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="65.25" outlineLevel="0" r="190" s="44">
+    <row r="190" spans="1:14" s="44" customFormat="1" ht="65.25" customHeight="1">
       <c r="A190" s="48"/>
       <c r="B190" s="57" t="s">
         <v>451</v>
@@ -7740,21 +7961,21 @@
       <c r="F190" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G190" s="51" t="n">
-        <v>41338.6263888889</v>
-      </c>
-      <c r="H190" s="52" t="n">
+      <c r="G190" s="51">
+        <v>41338.626388888901</v>
+      </c>
+      <c r="H190" s="52">
         <v>1</v>
       </c>
       <c r="I190" s="42"/>
       <c r="J190" s="40"/>
       <c r="K190" s="40"/>
-      <c r="L190" s="52" t="n">
+      <c r="L190" s="52">
         <v>1</v>
       </c>
       <c r="M190" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="46.5" outlineLevel="0" r="191" s="44">
+    <row r="191" spans="1:14" s="44" customFormat="1" ht="46.5" customHeight="1">
       <c r="A191" s="48"/>
       <c r="B191" s="57" t="s">
         <v>452</v>
@@ -7771,21 +7992,21 @@
       <c r="F191" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G191" s="51" t="n">
-        <v>41338.6263888889</v>
-      </c>
-      <c r="H191" s="52" t="n">
+      <c r="G191" s="51">
+        <v>41338.626388888901</v>
+      </c>
+      <c r="H191" s="52">
         <v>1</v>
       </c>
       <c r="I191" s="42"/>
       <c r="J191" s="40"/>
       <c r="K191" s="40"/>
-      <c r="L191" s="52" t="n">
+      <c r="L191" s="52">
         <v>1</v>
       </c>
       <c r="M191" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="54.75" outlineLevel="0" r="192" s="44">
+    <row r="192" spans="1:14" s="44" customFormat="1" ht="54.75" customHeight="1">
       <c r="A192" s="48"/>
       <c r="B192" s="57" t="s">
         <v>453</v>
@@ -7802,10 +8023,10 @@
       <c r="F192" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G192" s="51" t="n">
-        <v>41338.6263888889</v>
-      </c>
-      <c r="H192" s="52" t="n">
+      <c r="G192" s="51">
+        <v>41338.626388888901</v>
+      </c>
+      <c r="H192" s="52">
         <v>9</v>
       </c>
       <c r="I192" s="42" t="s">
@@ -7813,7 +8034,7 @@
       </c>
       <c r="J192" s="40"/>
       <c r="K192" s="40"/>
-      <c r="L192" s="52" t="n">
+      <c r="L192" s="52">
         <v>1</v>
       </c>
       <c r="M192" s="42" t="s">
@@ -7823,7 +8044,7 @@
         <v>243</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="58.5" outlineLevel="0" r="193" s="44">
+    <row r="193" spans="1:18" s="44" customFormat="1" ht="58.5" customHeight="1">
       <c r="A193" s="48"/>
       <c r="B193" s="57" t="s">
         <v>456</v>
@@ -7843,12 +8064,12 @@
       <c r="I193" s="42"/>
       <c r="J193" s="40"/>
       <c r="K193" s="40"/>
-      <c r="L193" s="52" t="n">
+      <c r="L193" s="52">
         <v>1</v>
       </c>
       <c r="M193" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="194" s="44">
+    <row r="194" spans="1:18" s="44" customFormat="1" ht="54" customHeight="1">
       <c r="A194" s="48"/>
       <c r="B194" s="57" t="s">
         <v>457</v>
@@ -7865,21 +8086,21 @@
       <c r="F194" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G194" s="51" t="n">
-        <v>41338.6298611111</v>
-      </c>
-      <c r="H194" s="52" t="n">
+      <c r="G194" s="51">
+        <v>41338.629861111098</v>
+      </c>
+      <c r="H194" s="52">
         <v>1</v>
       </c>
       <c r="I194" s="42"/>
       <c r="J194" s="40"/>
       <c r="K194" s="40"/>
-      <c r="L194" s="52" t="n">
+      <c r="L194" s="52">
         <v>1</v>
       </c>
       <c r="M194" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60.75" outlineLevel="0" r="195" s="44">
+    <row r="195" spans="1:18" s="44" customFormat="1" ht="60.75" customHeight="1">
       <c r="A195" s="39"/>
       <c r="B195" s="53" t="s">
         <v>458</v>
@@ -7890,10 +8111,10 @@
       <c r="F195" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G195" s="51" t="n">
-        <v>41338.6263888889</v>
-      </c>
-      <c r="H195" s="52" t="n">
+      <c r="G195" s="51">
+        <v>41338.626388888901</v>
+      </c>
+      <c r="H195" s="52">
         <v>9</v>
       </c>
       <c r="I195" s="36" t="s">
@@ -7908,7 +8129,7 @@
         <v>67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="196">
+    <row r="196" spans="1:18" ht="36" customHeight="1">
       <c r="A196" s="15"/>
       <c r="B196" s="16"/>
       <c r="C196" s="16"/>
@@ -7927,7 +8148,7 @@
       <c r="P196" s="22"/>
       <c r="Q196" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="197">
+    <row r="197" spans="1:18" ht="26" customHeight="1">
       <c r="B197" s="23" t="s">
         <v>460</v>
       </c>
@@ -7940,7 +8161,7 @@
       <c r="L197" s="21"/>
       <c r="M197" s="30"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="198" s="44">
+    <row r="198" spans="1:18" s="44" customFormat="1" ht="26" customHeight="1">
       <c r="A198" s="48"/>
       <c r="B198" s="57" t="s">
         <v>461</v>
@@ -7953,10 +8174,10 @@
       <c r="F198" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G198" s="51" t="n">
-        <v>4813.59444444445</v>
-      </c>
-      <c r="H198" s="52" t="n">
+      <c r="G198" s="51">
+        <v>4813.5944444444503</v>
+      </c>
+      <c r="H198" s="52">
         <v>1</v>
       </c>
       <c r="I198" s="42" t="s">
@@ -7965,20 +8186,18 @@
       <c r="J198" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="K198" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L198" s="52" t="n">
+      <c r="K198" s="51">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="L198" s="52">
         <v>1</v>
       </c>
       <c r="M198" s="42" t="s">
         <v>272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="199" s="44">
+    <row r="199" spans="1:18" s="44" customFormat="1" ht="26" customHeight="1">
       <c r="A199" s="48"/>
       <c r="B199" s="57" t="s">
         <v>463</v>
@@ -7991,62 +8210,58 @@
       <c r="F199" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="G199" s="51" t="n">
-        <v>4813.59444444445</v>
-      </c>
-      <c r="H199" s="52" t="n">
+      <c r="G199" s="51">
+        <v>4813.5944444444503</v>
+      </c>
+      <c r="H199" s="52">
         <v>1</v>
       </c>
       <c r="I199" s="42"/>
       <c r="J199" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="K199" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L199" s="52" t="n">
+      <c r="K199" s="51">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="L199" s="52">
         <v>1</v>
       </c>
       <c r="M199" s="42"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="200">
-      <c r="B200" s="2" t="s">
+    <row r="200" spans="1:18" ht="26" customHeight="1">
+      <c r="B200" s="3" t="s">
         <v>464</v>
       </c>
       <c r="F200" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G200" s="51" t="n">
-        <v>4813.59444444445</v>
-      </c>
-      <c r="H200" s="21" t="n">
+      <c r="G200" s="51">
+        <v>4813.5944444444503</v>
+      </c>
+      <c r="H200" s="21">
         <v>1</v>
       </c>
       <c r="I200" s="30"/>
       <c r="J200" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K200" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L200" s="21" t="n">
+      <c r="K200" s="47">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="L200" s="21">
         <v>1</v>
       </c>
       <c r="M200" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="201">
-      <c r="B201" s="2" t="s">
+    <row r="201" spans="1:18" ht="26" customHeight="1">
+      <c r="B201" s="3" t="s">
         <v>465</v>
       </c>
       <c r="F201" s="27"/>
-      <c r="G201" s="51" t="n">
-        <v>4813.59444444445</v>
+      <c r="G201" s="51">
+        <v>4813.5944444444503</v>
       </c>
       <c r="H201" s="21" t="s">
         <v>66</v>
@@ -8059,13 +8274,13 @@
       </c>
       <c r="M201" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="202">
-      <c r="B202" s="2" t="s">
+    <row r="202" spans="1:18" ht="26" customHeight="1">
+      <c r="B202" s="3" t="s">
         <v>466</v>
       </c>
       <c r="F202" s="27"/>
-      <c r="G202" s="51" t="n">
-        <v>4813.59444444445</v>
+      <c r="G202" s="51">
+        <v>4813.5944444444503</v>
       </c>
       <c r="H202" s="21" t="s">
         <v>66</v>
@@ -8078,15 +8293,15 @@
       </c>
       <c r="M202" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="203">
-      <c r="B203" s="2" t="s">
+    <row r="203" spans="1:18" ht="26" customHeight="1">
+      <c r="B203" s="3" t="s">
         <v>467</v>
       </c>
       <c r="F203" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G203" s="51" t="n">
-        <v>4813.59444444445</v>
+      <c r="G203" s="51">
+        <v>4813.5944444444503</v>
       </c>
       <c r="H203" s="21" t="s">
         <v>66</v>
@@ -8097,11 +8312,9 @@
       <c r="J203" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K203" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
+      <c r="K203" s="47">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
       </c>
       <c r="L203" s="21" t="s">
         <v>66</v>
@@ -8109,11 +8322,11 @@
       <c r="M203" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="N203" s="0" t="s">
+      <c r="N203" t="s">
         <v>243</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="37.3" outlineLevel="0" r="204" s="44">
+    <row r="204" spans="1:18" s="44" customFormat="1" ht="37.25" customHeight="1">
       <c r="A204" s="48"/>
       <c r="B204" s="57" t="s">
         <v>468</v>
@@ -8124,8 +8337,8 @@
       <c r="D204" s="60"/>
       <c r="E204" s="60"/>
       <c r="F204" s="40"/>
-      <c r="G204" s="51" t="n">
-        <v>4813.59444444445</v>
+      <c r="G204" s="51">
+        <v>4813.5944444444503</v>
       </c>
       <c r="H204" s="52"/>
       <c r="I204" s="42"/>
@@ -8138,17 +8351,17 @@
         <v>469</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="205">
-      <c r="B205" s="2" t="s">
+    <row r="205" spans="1:18" ht="26" customHeight="1">
+      <c r="B205" s="3" t="s">
         <v>470</v>
       </c>
       <c r="F205" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G205" s="51" t="n">
-        <v>4813.59444444445</v>
-      </c>
-      <c r="H205" s="21" t="n">
+      <c r="G205" s="51">
+        <v>4813.5944444444503</v>
+      </c>
+      <c r="H205" s="21">
         <v>1</v>
       </c>
       <c r="I205" s="30" t="s">
@@ -8157,30 +8370,28 @@
       <c r="J205" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K205" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L205" s="21" t="n">
+      <c r="K205" s="47">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="L205" s="21">
         <v>1</v>
       </c>
       <c r="M205" s="30" t="s">
         <v>471</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="206">
-      <c r="B206" s="2" t="s">
+    <row r="206" spans="1:18" ht="26" customHeight="1">
+      <c r="B206" s="3" t="s">
         <v>472</v>
       </c>
       <c r="F206" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G206" s="51" t="n">
-        <v>4813.59444444445</v>
-      </c>
-      <c r="H206" s="21" t="n">
+      <c r="G206" s="51">
+        <v>4813.5944444444503</v>
+      </c>
+      <c r="H206" s="21">
         <v>1</v>
       </c>
       <c r="I206" s="30" t="s">
@@ -8189,35 +8400,33 @@
       <c r="J206" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K206" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L206" s="21" t="n">
+      <c r="K206" s="47">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="L206" s="21">
         <v>1</v>
       </c>
       <c r="M206" s="30" t="s">
         <v>473</v>
       </c>
-      <c r="N206" s="3"/>
-      <c r="O206" s="3"/>
-      <c r="P206" s="3"/>
-      <c r="Q206" s="3"/>
+      <c r="N206" s="4"/>
+      <c r="O206" s="4"/>
+      <c r="P206" s="4"/>
+      <c r="Q206" s="4"/>
       <c r="R206" s="24"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="46.95" outlineLevel="0" r="207">
-      <c r="B207" s="2" t="s">
+    <row r="207" spans="1:18" ht="47" customHeight="1">
+      <c r="B207" s="3" t="s">
         <v>474</v>
       </c>
       <c r="F207" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G207" s="51" t="n">
-        <v>4813.59444444445</v>
-      </c>
-      <c r="H207" s="21" t="n">
+      <c r="G207" s="51">
+        <v>4813.5944444444503</v>
+      </c>
+      <c r="H207" s="21">
         <v>9</v>
       </c>
       <c r="I207" s="30" t="s">
@@ -8226,33 +8435,31 @@
       <c r="J207" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K207" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L207" s="21" t="n">
+      <c r="K207" s="47">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="L207" s="21">
         <v>9</v>
       </c>
       <c r="M207" s="30" t="s">
         <v>476</v>
       </c>
-      <c r="N207" s="0" t="s">
+      <c r="N207" t="s">
         <v>243</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26" outlineLevel="0" r="208">
-      <c r="B208" s="2" t="s">
+    <row r="208" spans="1:18" ht="26" customHeight="1">
+      <c r="B208" s="3" t="s">
         <v>477</v>
       </c>
       <c r="F208" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G208" s="51" t="n">
-        <v>4813.59444444445</v>
-      </c>
-      <c r="H208" s="21" t="n">
+      <c r="G208" s="51">
+        <v>4813.5944444444503</v>
+      </c>
+      <c r="H208" s="21">
         <v>1</v>
       </c>
       <c r="I208" s="30" t="s">
@@ -8261,20 +8468,18 @@
       <c r="J208" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K208" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L208" s="21" t="n">
+      <c r="K208" s="47">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="L208" s="21">
         <v>1</v>
       </c>
       <c r="M208" s="30" t="s">
         <v>473</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="209">
+    <row r="209" spans="1:17" ht="36" customHeight="1">
       <c r="A209" s="15"/>
       <c r="B209" s="16"/>
       <c r="C209" s="16"/>
@@ -8293,7 +8498,7 @@
       <c r="P209" s="22"/>
       <c r="Q209" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="210">
+    <row r="210" spans="1:17" ht="15.75" customHeight="1">
       <c r="B210" s="23" t="s">
         <v>478</v>
       </c>
@@ -8302,17 +8507,17 @@
       <c r="J210" s="46"/>
       <c r="K210" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="211">
-      <c r="B211" s="2" t="s">
+    <row r="211" spans="1:17" ht="30" customHeight="1">
+      <c r="B211" s="3" t="s">
         <v>479</v>
       </c>
       <c r="F211" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G211" s="47" t="n">
-        <v>41338.6326388889</v>
-      </c>
-      <c r="H211" s="21" t="n">
+      <c r="G211" s="47">
+        <v>41338.632638888899</v>
+      </c>
+      <c r="H211" s="21">
         <v>1</v>
       </c>
       <c r="I211" s="30" t="s">
@@ -8321,30 +8526,28 @@
       <c r="J211" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="K211" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="L211" s="21" t="n">
+      <c r="K211" s="47">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="L211" s="21">
         <v>1</v>
       </c>
       <c r="M211" s="30" t="s">
         <v>481</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="212">
-      <c r="B212" s="2" t="s">
+    <row r="212" spans="1:17" ht="30" customHeight="1">
+      <c r="B212" s="3" t="s">
         <v>482</v>
       </c>
       <c r="F212" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G212" s="47" t="n">
-        <v>41338.6326388889</v>
-      </c>
-      <c r="H212" s="21" t="n">
+      <c r="G212" s="47">
+        <v>41338.632638888899</v>
+      </c>
+      <c r="H212" s="21">
         <v>1</v>
       </c>
       <c r="I212" s="30" t="s">
@@ -8352,22 +8555,22 @@
       </c>
       <c r="J212" s="27"/>
       <c r="K212" s="27"/>
-      <c r="L212" s="21" t="n">
+      <c r="L212" s="21">
         <v>1</v>
       </c>
       <c r="M212" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="213">
-      <c r="B213" s="2" t="s">
+    <row r="213" spans="1:17" ht="30" customHeight="1">
+      <c r="B213" s="3" t="s">
         <v>484</v>
       </c>
       <c r="F213" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G213" s="47" t="n">
-        <v>41338.6326388889</v>
-      </c>
-      <c r="H213" s="21" t="n">
+      <c r="G213" s="47">
+        <v>41338.632638888899</v>
+      </c>
+      <c r="H213" s="21">
         <v>1</v>
       </c>
       <c r="I213" s="30" t="s">
@@ -8375,22 +8578,22 @@
       </c>
       <c r="J213" s="27"/>
       <c r="K213" s="27"/>
-      <c r="L213" s="21" t="n">
+      <c r="L213" s="21">
         <v>1</v>
       </c>
       <c r="M213" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="214">
-      <c r="B214" s="2" t="s">
+    <row r="214" spans="1:17" ht="30" customHeight="1">
+      <c r="B214" s="3" t="s">
         <v>486</v>
       </c>
       <c r="F214" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G214" s="47" t="n">
-        <v>41338.6326388889</v>
-      </c>
-      <c r="H214" s="21" t="n">
+      <c r="G214" s="47">
+        <v>41338.632638888899</v>
+      </c>
+      <c r="H214" s="21">
         <v>1</v>
       </c>
       <c r="I214" s="30" t="s">
@@ -8398,12 +8601,12 @@
       </c>
       <c r="J214" s="27"/>
       <c r="K214" s="27"/>
-      <c r="L214" s="21" t="n">
+      <c r="L214" s="21">
         <v>1</v>
       </c>
       <c r="M214" s="30"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="215" s="44">
+    <row r="215" spans="1:17" s="44" customFormat="1" ht="30" customHeight="1">
       <c r="A215" s="48"/>
       <c r="B215" s="57" t="s">
         <v>488</v>
@@ -8416,21 +8619,21 @@
       <c r="F215" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G215" s="51" t="n">
-        <v>41338.6326388889</v>
-      </c>
-      <c r="H215" s="52" t="n">
+      <c r="G215" s="51">
+        <v>41338.632638888899</v>
+      </c>
+      <c r="H215" s="52">
         <v>1</v>
       </c>
       <c r="I215" s="42"/>
       <c r="J215" s="40"/>
       <c r="K215" s="40"/>
-      <c r="L215" s="52" t="n">
+      <c r="L215" s="52">
         <v>1</v>
       </c>
       <c r="M215" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="216" s="58">
+    <row r="216" spans="1:17" s="58" customFormat="1" ht="45" customHeight="1">
       <c r="A216" s="39"/>
       <c r="B216" s="53" t="s">
         <v>489</v>
@@ -8453,7 +8656,7 @@
         <v>490</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="60.75" outlineLevel="0" r="217" s="58">
+    <row r="217" spans="1:17" s="58" customFormat="1" ht="60.75" customHeight="1">
       <c r="A217" s="39"/>
       <c r="B217" s="53" t="s">
         <v>491</v>
@@ -8469,14 +8672,14 @@
       </c>
       <c r="J217" s="40"/>
       <c r="K217" s="40"/>
-      <c r="L217" s="52" t="n">
+      <c r="L217" s="52">
         <v>1</v>
       </c>
       <c r="M217" s="36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="218">
+    <row r="218" spans="1:17" ht="36" customHeight="1">
       <c r="A218" s="15"/>
       <c r="B218" s="16"/>
       <c r="C218" s="16"/>
@@ -8495,7 +8698,7 @@
       <c r="P218" s="22"/>
       <c r="Q218" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="219">
+    <row r="219" spans="1:17" ht="30.75" customHeight="1">
       <c r="B219" s="61" t="s">
         <v>492</v>
       </c>
@@ -8505,29 +8708,29 @@
       <c r="J219" s="46"/>
       <c r="K219" s="46"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="220">
-      <c r="B220" s="2" t="s">
+    <row r="220" spans="1:17" ht="45" customHeight="1">
+      <c r="B220" s="3" t="s">
         <v>493</v>
       </c>
       <c r="F220" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G220" s="47" t="n">
-        <v>41338.6326388889</v>
-      </c>
-      <c r="H220" s="52" t="n">
+      <c r="G220" s="47">
+        <v>41338.632638888899</v>
+      </c>
+      <c r="H220" s="52">
         <v>1</v>
       </c>
       <c r="I220" s="30"/>
       <c r="J220" s="27"/>
       <c r="K220" s="27"/>
-      <c r="L220" s="21" t="n">
+      <c r="L220" s="21">
         <v>1</v>
       </c>
       <c r="M220" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="90" outlineLevel="0" r="221">
-      <c r="B221" s="2" t="s">
+    <row r="221" spans="1:17" ht="90" customHeight="1">
+      <c r="B221" s="3" t="s">
         <v>494</v>
       </c>
       <c r="F221" s="27"/>
@@ -8536,55 +8739,55 @@
       <c r="I221" s="30"/>
       <c r="J221" s="27"/>
       <c r="K221" s="27"/>
-      <c r="L221" s="21" t="n">
+      <c r="L221" s="21">
         <v>1</v>
       </c>
       <c r="M221" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="222">
-      <c r="B222" s="2" t="s">
+    <row r="222" spans="1:17" ht="45" customHeight="1">
+      <c r="B222" s="3" t="s">
         <v>495</v>
       </c>
       <c r="F222" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G222" s="47" t="n">
-        <v>41338.6326388889</v>
-      </c>
-      <c r="H222" s="52" t="n">
+      <c r="G222" s="47">
+        <v>41338.632638888899</v>
+      </c>
+      <c r="H222" s="52">
         <v>1</v>
       </c>
       <c r="I222" s="30"/>
       <c r="J222" s="27"/>
       <c r="K222" s="27"/>
-      <c r="L222" s="21" t="n">
+      <c r="L222" s="21">
         <v>1</v>
       </c>
       <c r="M222" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="75" outlineLevel="0" r="223">
-      <c r="B223" s="2" t="s">
+    <row r="223" spans="1:17" ht="75" customHeight="1">
+      <c r="B223" s="3" t="s">
         <v>496</v>
       </c>
       <c r="F223" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G223" s="47" t="n">
-        <v>41338.6666666667</v>
-      </c>
-      <c r="H223" s="21" t="n">
+      <c r="G223" s="47">
+        <v>41338.666666666701</v>
+      </c>
+      <c r="H223" s="21">
         <v>1</v>
       </c>
       <c r="I223" s="30"/>
       <c r="J223" s="27"/>
       <c r="K223" s="27"/>
-      <c r="L223" s="21" t="n">
+      <c r="L223" s="21">
         <v>1</v>
       </c>
       <c r="M223" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="142.45" outlineLevel="0" r="224">
-      <c r="B224" s="2" t="s">
+    <row r="224" spans="1:17" ht="142.5" customHeight="1">
+      <c r="B224" s="3" t="s">
         <v>497</v>
       </c>
       <c r="F224" s="27"/>
@@ -8593,15 +8796,15 @@
       <c r="I224" s="30"/>
       <c r="J224" s="27"/>
       <c r="K224" s="27"/>
-      <c r="L224" s="21" t="n">
+      <c r="L224" s="21">
         <v>1</v>
       </c>
       <c r="M224" s="30" t="s">
         <v>498</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="225">
-      <c r="B225" s="2" t="s">
+    <row r="225" spans="1:17" ht="60" customHeight="1">
+      <c r="B225" s="3" t="s">
         <v>499</v>
       </c>
       <c r="F225" s="27"/>
@@ -8610,15 +8813,15 @@
       <c r="I225" s="30"/>
       <c r="J225" s="27"/>
       <c r="K225" s="27"/>
-      <c r="L225" s="21" t="n">
+      <c r="L225" s="21">
         <v>1</v>
       </c>
       <c r="M225" s="30" t="s">
         <v>500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="226">
-      <c r="B226" s="2" t="s">
+    <row r="226" spans="1:17" ht="60" customHeight="1">
+      <c r="B226" s="3" t="s">
         <v>501</v>
       </c>
       <c r="F226" s="27"/>
@@ -8633,32 +8836,32 @@
       <c r="M226" s="30" t="s">
         <v>502</v>
       </c>
-      <c r="N226" s="0" t="s">
+      <c r="N226" t="s">
         <v>503</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="227">
-      <c r="B227" s="2" t="s">
+    <row r="227" spans="1:17" ht="45" customHeight="1">
+      <c r="B227" s="3" t="s">
         <v>504</v>
       </c>
       <c r="F227" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G227" s="47" t="n">
-        <v>41338.6326388889</v>
-      </c>
-      <c r="H227" s="52" t="n">
+      <c r="G227" s="47">
+        <v>41338.632638888899</v>
+      </c>
+      <c r="H227" s="52">
         <v>1</v>
       </c>
       <c r="I227" s="30"/>
       <c r="J227" s="27"/>
       <c r="K227" s="27"/>
-      <c r="L227" s="21" t="n">
+      <c r="L227" s="21">
         <v>1</v>
       </c>
       <c r="M227" s="30"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="228" s="44">
+    <row r="228" spans="1:17" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A228" s="48"/>
       <c r="B228" s="57" t="s">
         <v>505</v>
@@ -8671,42 +8874,42 @@
       <c r="F228" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G228" s="51" t="n">
-        <v>41338.6326388889</v>
-      </c>
-      <c r="H228" s="52" t="n">
+      <c r="G228" s="51">
+        <v>41338.632638888899</v>
+      </c>
+      <c r="H228" s="52">
         <v>1</v>
       </c>
       <c r="I228" s="42"/>
       <c r="J228" s="40"/>
       <c r="K228" s="40"/>
-      <c r="L228" s="52" t="n">
+      <c r="L228" s="52">
         <v>1</v>
       </c>
       <c r="M228" s="42"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="229">
-      <c r="B229" s="2" t="s">
+    <row r="229" spans="1:17" ht="45" customHeight="1">
+      <c r="B229" s="3" t="s">
         <v>506</v>
       </c>
       <c r="F229" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G229" s="47" t="n">
-        <v>41338.6326388889</v>
-      </c>
-      <c r="H229" s="52" t="n">
+      <c r="G229" s="47">
+        <v>41338.632638888899</v>
+      </c>
+      <c r="H229" s="52">
         <v>1</v>
       </c>
       <c r="I229" s="30"/>
       <c r="J229" s="27"/>
       <c r="K229" s="27"/>
-      <c r="L229" s="21" t="n">
+      <c r="L229" s="21">
         <v>1</v>
       </c>
       <c r="M229" s="30"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="230" s="58">
+    <row r="230" spans="1:17" s="58" customFormat="1" ht="30" customHeight="1">
       <c r="A230" s="39"/>
       <c r="B230" s="53" t="s">
         <v>507</v>
@@ -8727,7 +8930,7 @@
       </c>
       <c r="M230" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="231" s="58">
+    <row r="231" spans="1:17" s="58" customFormat="1" ht="15" customHeight="1">
       <c r="A231" s="39"/>
       <c r="B231" s="53" t="s">
         <v>510</v>
@@ -8743,14 +8946,14 @@
       </c>
       <c r="J231" s="40"/>
       <c r="K231" s="40"/>
-      <c r="L231" s="52" t="n">
+      <c r="L231" s="52">
         <v>1</v>
       </c>
       <c r="M231" s="42" t="s">
         <v>512</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="232" s="58">
+    <row r="232" spans="1:17" s="58" customFormat="1" ht="15.75" customHeight="1">
       <c r="A232" s="39"/>
       <c r="B232" s="53" t="s">
         <v>513</v>
@@ -8766,14 +8969,14 @@
       </c>
       <c r="J232" s="40"/>
       <c r="K232" s="40"/>
-      <c r="L232" s="52" t="n">
+      <c r="L232" s="52">
         <v>1</v>
       </c>
       <c r="M232" s="42" t="s">
         <v>512</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="233">
+    <row r="233" spans="1:17" ht="36" customHeight="1">
       <c r="A233" s="15"/>
       <c r="B233" s="16"/>
       <c r="C233" s="16"/>
@@ -8792,7 +8995,7 @@
       <c r="P233" s="22"/>
       <c r="Q233" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="234">
+    <row r="234" spans="1:17" ht="30.75" customHeight="1">
       <c r="B234" s="37" t="s">
         <v>514</v>
       </c>
@@ -8808,55 +9011,51 @@
       <c r="L234" s="21"/>
       <c r="M234" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="235">
-      <c r="B235" s="2" t="s">
+    <row r="235" spans="1:17" ht="30" customHeight="1">
+      <c r="B235" s="3" t="s">
         <v>516</v>
       </c>
       <c r="F235" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G235" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H235" s="21" t="n">
+      <c r="G235" s="47">
+        <f t="shared" ref="G235:G240" ca="1" si="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H235" s="21">
         <v>1</v>
       </c>
       <c r="I235" s="30"/>
       <c r="J235" s="27"/>
       <c r="K235" s="27"/>
-      <c r="L235" s="21" t="n">
+      <c r="L235" s="21">
         <v>1</v>
       </c>
       <c r="M235" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="33.9" outlineLevel="0" r="236">
-      <c r="B236" s="2" t="s">
+    <row r="236" spans="1:17" ht="34" customHeight="1">
+      <c r="B236" s="3" t="s">
         <v>517</v>
       </c>
       <c r="F236" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G236" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H236" s="21" t="n">
+      <c r="G236" s="47">
+        <f t="shared" ca="1" si="1"/>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H236" s="21">
         <v>1</v>
       </c>
       <c r="I236" s="30"/>
       <c r="J236" s="27"/>
       <c r="K236" s="27"/>
-      <c r="L236" s="21" t="n">
+      <c r="L236" s="21">
         <v>1</v>
       </c>
       <c r="M236" s="30"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="237" s="44">
+    <row r="237" spans="1:17" s="44" customFormat="1" ht="45" customHeight="1">
       <c r="A237" s="39"/>
       <c r="B237" s="53" t="s">
         <v>518</v>
@@ -8867,13 +9066,11 @@
       <c r="F237" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G237" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H237" s="52" t="n">
+      <c r="G237" s="51">
+        <f t="shared" ca="1" si="1"/>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H237" s="52">
         <v>9</v>
       </c>
       <c r="I237" s="42" t="s">
@@ -8891,20 +9088,18 @@
         <v>243</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="238">
-      <c r="B238" s="2" t="s">
+    <row r="238" spans="1:17" ht="30" customHeight="1">
+      <c r="B238" s="3" t="s">
         <v>521</v>
       </c>
       <c r="F238" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G238" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H238" s="21" t="n">
+      <c r="G238" s="47">
+        <f t="shared" ca="1" si="1"/>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H238" s="21">
         <v>1</v>
       </c>
       <c r="I238" s="30" t="s">
@@ -8912,25 +9107,23 @@
       </c>
       <c r="J238" s="27"/>
       <c r="K238" s="27"/>
-      <c r="L238" s="21" t="n">
+      <c r="L238" s="21">
         <v>1</v>
       </c>
       <c r="M238" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="100.6" outlineLevel="0" r="239">
-      <c r="B239" s="2" t="s">
+    <row r="239" spans="1:17" ht="100.5" customHeight="1">
+      <c r="B239" s="3" t="s">
         <v>523</v>
       </c>
       <c r="F239" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G239" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H239" s="21" t="n">
+      <c r="G239" s="47">
+        <f t="shared" ca="1" si="1"/>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H239" s="21">
         <v>0</v>
       </c>
       <c r="I239" s="30" t="s">
@@ -8938,30 +9131,28 @@
       </c>
       <c r="J239" s="27"/>
       <c r="K239" s="27"/>
-      <c r="L239" s="21" t="n">
+      <c r="L239" s="21">
         <v>1</v>
       </c>
       <c r="M239" s="30" t="s">
         <v>525</v>
       </c>
-      <c r="N239" s="0" t="s">
+      <c r="N239" t="s">
         <v>243</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="240">
-      <c r="B240" s="2" t="s">
+    <row r="240" spans="1:17" ht="30.75" customHeight="1">
+      <c r="B240" s="3" t="s">
         <v>526</v>
       </c>
       <c r="F240" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="G240" s="47" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H240" s="21" t="n">
+      <c r="G240" s="47">
+        <f t="shared" ca="1" si="1"/>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H240" s="21">
         <v>9</v>
       </c>
       <c r="I240" s="30" t="s">
@@ -8974,7 +9165,7 @@
       </c>
       <c r="M240" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="241">
+    <row r="241" spans="1:17" ht="36" customHeight="1">
       <c r="A241" s="15"/>
       <c r="B241" s="16"/>
       <c r="C241" s="16"/>
@@ -8993,7 +9184,7 @@
       <c r="P241" s="22"/>
       <c r="Q241" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="242">
+    <row r="242" spans="1:17" ht="15.75" customHeight="1">
       <c r="B242" s="37" t="s">
         <v>527</v>
       </c>
@@ -9006,7 +9197,7 @@
       <c r="L242" s="21"/>
       <c r="M242" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="243">
+    <row r="243" spans="1:17" ht="54" customHeight="1">
       <c r="B243" s="25" t="s">
         <v>528</v>
       </c>
@@ -9032,7 +9223,7 @@
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="244">
+    <row r="244" spans="1:17" ht="49.5" customHeight="1">
       <c r="B244" s="25" t="s">
         <v>532</v>
       </c>
@@ -9058,7 +9249,7 @@
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="245">
+    <row r="245" spans="1:17" ht="54" customHeight="1">
       <c r="B245" s="25" t="s">
         <v>535</v>
       </c>
@@ -9084,7 +9275,7 @@
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="246">
+    <row r="246" spans="1:17" ht="49.5" customHeight="1">
       <c r="B246" s="25" t="s">
         <v>536</v>
       </c>
@@ -9110,7 +9301,7 @@
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="247">
+    <row r="247" spans="1:17" ht="54" customHeight="1">
       <c r="B247" s="25" t="s">
         <v>537</v>
       </c>
@@ -9136,7 +9327,7 @@
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="248">
+    <row r="248" spans="1:17" ht="49.5" customHeight="1">
       <c r="B248" s="25" t="s">
         <v>538</v>
       </c>
@@ -9162,7 +9353,7 @@
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="249">
+    <row r="249" spans="1:17" ht="54" customHeight="1">
       <c r="B249" s="25" t="s">
         <v>539</v>
       </c>
@@ -9188,7 +9379,7 @@
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="250">
+    <row r="250" spans="1:17" ht="54" customHeight="1">
       <c r="B250" s="25" t="s">
         <v>540</v>
       </c>
@@ -9214,7 +9405,7 @@
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="49.5" outlineLevel="0" r="251">
+    <row r="251" spans="1:17" ht="49.5" customHeight="1">
       <c r="B251" s="25" t="s">
         <v>541</v>
       </c>
@@ -9240,7 +9431,7 @@
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="252">
+    <row r="252" spans="1:17" ht="54" customHeight="1">
       <c r="B252" s="25" t="s">
         <v>542</v>
       </c>
@@ -9266,7 +9457,7 @@
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53.25" outlineLevel="0" r="253">
+    <row r="253" spans="1:17" ht="53.25" customHeight="1">
       <c r="B253" s="25" t="s">
         <v>543</v>
       </c>
@@ -9292,7 +9483,7 @@
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="54" outlineLevel="0" r="254">
+    <row r="254" spans="1:17" ht="54" customHeight="1">
       <c r="B254" s="25" t="s">
         <v>544</v>
       </c>
@@ -9318,7 +9509,7 @@
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="255">
+    <row r="255" spans="1:17" ht="36" customHeight="1">
       <c r="A255" s="15"/>
       <c r="B255" s="16"/>
       <c r="C255" s="16"/>
@@ -9337,7 +9528,7 @@
       <c r="P255" s="22"/>
       <c r="Q255" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="256">
+    <row r="256" spans="1:17" ht="15.75" customHeight="1">
       <c r="B256" s="23" t="s">
         <v>547</v>
       </c>
@@ -9350,7 +9541,7 @@
       <c r="L256" s="21"/>
       <c r="M256" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="257">
+    <row r="257" spans="1:17" ht="60" customHeight="1">
       <c r="B257" s="25" t="s">
         <v>548</v>
       </c>
@@ -9378,7 +9569,7 @@
         <v>551</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="258">
+    <row r="258" spans="1:17" ht="60" customHeight="1">
       <c r="B258" s="25" t="s">
         <v>552</v>
       </c>
@@ -9406,7 +9597,7 @@
         <v>551</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="259">
+    <row r="259" spans="1:17" ht="60" customHeight="1">
       <c r="B259" s="25" t="s">
         <v>555</v>
       </c>
@@ -9434,7 +9625,7 @@
         <v>551</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="260">
+    <row r="260" spans="1:17" ht="60" customHeight="1">
       <c r="B260" s="25" t="s">
         <v>558</v>
       </c>
@@ -9462,7 +9653,7 @@
         <v>551</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="261">
+    <row r="261" spans="1:17" ht="60" customHeight="1">
       <c r="B261" s="25" t="s">
         <v>561</v>
       </c>
@@ -9490,7 +9681,7 @@
         <v>551</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="262">
+    <row r="262" spans="1:17" ht="60" customHeight="1">
       <c r="B262" s="25" t="s">
         <v>564</v>
       </c>
@@ -9518,7 +9709,7 @@
         <v>551</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="60" outlineLevel="0" r="263">
+    <row r="263" spans="1:17" ht="60" customHeight="1">
       <c r="B263" s="25" t="s">
         <v>567</v>
       </c>
@@ -9546,7 +9737,7 @@
         <v>67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45" outlineLevel="0" r="264">
+    <row r="264" spans="1:17" ht="45" customHeight="1">
       <c r="B264" s="25" t="s">
         <v>570</v>
       </c>
@@ -9574,7 +9765,7 @@
         <v>573</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="45.75" outlineLevel="0" r="265">
+    <row r="265" spans="1:17" ht="45.75" customHeight="1">
       <c r="B265" s="25" t="s">
         <v>574</v>
       </c>
@@ -9602,7 +9793,7 @@
         <v>573</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="266">
+    <row r="266" spans="1:17" ht="36" customHeight="1">
       <c r="A266" s="15"/>
       <c r="B266" s="16"/>
       <c r="C266" s="16"/>
@@ -9621,7 +9812,7 @@
       <c r="P266" s="22"/>
       <c r="Q266" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="267">
+    <row r="267" spans="1:17" ht="15.75" customHeight="1">
       <c r="B267" s="23" t="s">
         <v>577</v>
       </c>
@@ -9634,7 +9825,7 @@
       <c r="L267" s="21"/>
       <c r="M267" s="30"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="19.2" outlineLevel="0" r="268" s="44">
+    <row r="268" spans="1:17" s="44" customFormat="1" ht="19.25" customHeight="1">
       <c r="A268" s="39"/>
       <c r="B268" s="53" t="s">
         <v>578</v>
@@ -9645,13 +9836,11 @@
       <c r="F268" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G268" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H268" s="52" t="n">
+      <c r="G268" s="51">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H268" s="52">
         <v>1</v>
       </c>
       <c r="I268" s="42" t="s">
@@ -9659,14 +9848,14 @@
       </c>
       <c r="J268" s="40"/>
       <c r="K268" s="40"/>
-      <c r="L268" s="52" t="n">
+      <c r="L268" s="52">
         <v>1</v>
       </c>
       <c r="M268" s="42" t="s">
         <v>579</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.85" outlineLevel="0" r="269" s="44">
+    <row r="269" spans="1:17" s="44" customFormat="1" ht="24.75" customHeight="1">
       <c r="A269" s="39"/>
       <c r="B269" s="53" t="s">
         <v>580</v>
@@ -9677,24 +9866,22 @@
       <c r="F269" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G269" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H269" s="52" t="n">
+      <c r="G269" s="51">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H269" s="52">
         <v>1</v>
       </c>
       <c r="I269" s="42"/>
       <c r="J269" s="40"/>
       <c r="K269" s="40"/>
-      <c r="L269" s="52" t="n">
+      <c r="L269" s="52">
         <v>1</v>
       </c>
       <c r="M269" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="36.15" outlineLevel="0" r="270" s="44">
+    <row r="270" spans="1:17" s="44" customFormat="1" ht="36.25" customHeight="1">
       <c r="A270" s="39"/>
       <c r="B270" s="53" t="s">
         <v>581</v>
@@ -9705,13 +9892,11 @@
       <c r="F270" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G270" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H270" s="52" t="n">
+      <c r="G270" s="51">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H270" s="52">
         <v>0</v>
       </c>
       <c r="I270" s="42"/>
@@ -9727,7 +9912,7 @@
         <v>243</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30.75" outlineLevel="0" r="271" s="44">
+    <row r="271" spans="1:17" s="44" customFormat="1" ht="30.75" customHeight="1">
       <c r="A271" s="39"/>
       <c r="B271" s="53" t="s">
         <v>583</v>
@@ -9738,13 +9923,11 @@
       <c r="F271" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G271" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H271" s="52" t="n">
+      <c r="G271" s="51">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H271" s="52">
         <v>1</v>
       </c>
       <c r="I271" s="42" t="s">
@@ -9752,14 +9935,14 @@
       </c>
       <c r="J271" s="40"/>
       <c r="K271" s="40"/>
-      <c r="L271" s="52" t="n">
+      <c r="L271" s="52">
         <v>1</v>
       </c>
       <c r="M271" s="42" t="s">
         <v>511</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="272">
+    <row r="272" spans="1:17" ht="36" customHeight="1">
       <c r="A272" s="15"/>
       <c r="B272" s="16"/>
       <c r="C272" s="16"/>
@@ -9778,7 +9961,7 @@
       <c r="P272" s="22"/>
       <c r="Q272" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="273">
+    <row r="273" spans="1:17" ht="15.75" customHeight="1">
       <c r="B273" s="23" t="s">
         <v>585</v>
       </c>
@@ -9791,7 +9974,7 @@
       <c r="L273" s="21"/>
       <c r="M273" s="30"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="274" s="44">
+    <row r="274" spans="1:17" s="44" customFormat="1" ht="30" customHeight="1">
       <c r="A274" s="48"/>
       <c r="B274" s="57" t="s">
         <v>586</v>
@@ -9804,13 +9987,11 @@
       <c r="F274" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G274" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H274" s="52" t="n">
+      <c r="G274" s="51">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H274" s="52">
         <v>1</v>
       </c>
       <c r="I274" s="42" t="s">
@@ -9818,12 +9999,12 @@
       </c>
       <c r="J274" s="40"/>
       <c r="K274" s="40"/>
-      <c r="L274" s="52" t="n">
+      <c r="L274" s="52">
         <v>1</v>
       </c>
       <c r="M274" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="275" s="44">
+    <row r="275" spans="1:17" s="44" customFormat="1" ht="30" customHeight="1">
       <c r="A275" s="48"/>
       <c r="B275" s="57" t="s">
         <v>588</v>
@@ -9836,13 +10017,11 @@
       <c r="F275" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G275" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H275" s="52" t="n">
+      <c r="G275" s="51">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H275" s="52">
         <v>1</v>
       </c>
       <c r="I275" s="42" t="s">
@@ -9850,12 +10029,12 @@
       </c>
       <c r="J275" s="40"/>
       <c r="K275" s="40"/>
-      <c r="L275" s="52" t="n">
+      <c r="L275" s="52">
         <v>1</v>
       </c>
       <c r="M275" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="276" s="44">
+    <row r="276" spans="1:17" s="44" customFormat="1" ht="30" customHeight="1">
       <c r="A276" s="48"/>
       <c r="B276" s="57" t="s">
         <v>589</v>
@@ -9868,19 +10047,17 @@
       <c r="F276" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G276" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H276" s="52" t="n">
+      <c r="G276" s="51">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H276" s="52">
         <v>9</v>
       </c>
       <c r="I276" s="42"/>
       <c r="J276" s="40"/>
       <c r="K276" s="40"/>
-      <c r="L276" s="52" t="n">
+      <c r="L276" s="52">
         <v>1</v>
       </c>
       <c r="M276" s="42" t="s">
@@ -9890,7 +10067,7 @@
         <v>243</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="44.05" outlineLevel="0" r="277" s="44">
+    <row r="277" spans="1:17" s="44" customFormat="1" ht="44" customHeight="1">
       <c r="A277" s="48"/>
       <c r="B277" s="57" t="s">
         <v>591</v>
@@ -9903,13 +10080,11 @@
       <c r="F277" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="G277" s="51" t="inlineStr">
-        <f aca="true">NOW()</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H277" s="52" t="n">
+      <c r="G277" s="51">
+        <f ca="1">NOW()</f>
+        <v>41463.553720138887</v>
+      </c>
+      <c r="H277" s="52">
         <v>0</v>
       </c>
       <c r="I277" s="42" t="s">
@@ -9922,7 +10097,7 @@
       </c>
       <c r="M277" s="42"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="278" s="44">
+    <row r="278" spans="1:17" s="44" customFormat="1" ht="30" customHeight="1">
       <c r="A278" s="48"/>
       <c r="B278" s="57" t="s">
         <v>593</v>
@@ -9943,7 +10118,7 @@
       </c>
       <c r="M278" s="42"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="279">
+    <row r="279" spans="1:17" ht="15" customHeight="1">
       <c r="F279" s="27"/>
       <c r="G279" s="27"/>
       <c r="H279" s="21"/>
@@ -9953,7 +10128,7 @@
       <c r="L279" s="21"/>
       <c r="M279" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="280">
+    <row r="280" spans="1:17" ht="15" customHeight="1">
       <c r="F280" s="27"/>
       <c r="G280" s="27"/>
       <c r="H280" s="21"/>
@@ -9963,7 +10138,7 @@
       <c r="L280" s="21"/>
       <c r="M280" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="281">
+    <row r="281" spans="1:17" ht="15" customHeight="1">
       <c r="F281" s="27"/>
       <c r="G281" s="27"/>
       <c r="H281" s="21"/>
@@ -9973,7 +10148,7 @@
       <c r="L281" s="21"/>
       <c r="M281" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="282">
+    <row r="282" spans="1:17" ht="15.75" customHeight="1">
       <c r="F282" s="27"/>
       <c r="G282" s="27"/>
       <c r="H282" s="21"/>
@@ -9983,7 +10158,7 @@
       <c r="L282" s="21"/>
       <c r="M282" s="30"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="283">
+    <row r="283" spans="1:17" ht="36" customHeight="1">
       <c r="A283" s="15"/>
       <c r="B283" s="16"/>
       <c r="C283" s="16"/>
@@ -10002,7 +10177,7 @@
       <c r="P283" s="22"/>
       <c r="Q283" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="284">
+    <row r="284" spans="1:17" ht="36" customHeight="1">
       <c r="A284" s="15"/>
       <c r="B284" s="16"/>
       <c r="C284" s="16"/>
@@ -10021,7 +10196,7 @@
       <c r="P284" s="22"/>
       <c r="Q284" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="285">
+    <row r="285" spans="1:17" ht="36" customHeight="1">
       <c r="A285" s="15"/>
       <c r="B285" s="16"/>
       <c r="C285" s="16"/>
@@ -10040,7 +10215,7 @@
       <c r="P285" s="22"/>
       <c r="Q285" s="22"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="36" outlineLevel="0" r="286">
+    <row r="286" spans="1:17" ht="36" customHeight="1">
       <c r="A286" s="15"/>
       <c r="B286" s="16"/>
       <c r="C286" s="16"/>
@@ -10063,37 +10238,30 @@
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="66" workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72156862745098"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>